--- a/src/Palabras Claves Version 10-08-2024.xlsx
+++ b/src/Palabras Claves Version 10-08-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sague\Desktop\WebScrapping\WebScraping_Finding\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8586F6-B17E-4D50-A539-38E4EF7988E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86956980-7657-47ED-BE35-C36A3FD729E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E42FA243-F694-480D-BC3A-A77E7821E5C9}"/>
+    <workbookView xWindow="28680" yWindow="2115" windowWidth="18090" windowHeight="9660" xr2:uid="{E42FA243-F694-480D-BC3A-A77E7821E5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="395">
   <si>
     <t>Food Supply Chain</t>
   </si>
@@ -1204,32 +1204,28 @@
     <t>Total Palabras con Fecha de Expiracion Superior a 3 meses</t>
   </si>
   <si>
-    <t>Cadena de suministro de
-alimentos, logística y distribución</t>
-  </si>
-  <si>
-    <t>Cadena de suministro de alimentos, logística y distribución</t>
-  </si>
-  <si>
-    <t>Calidad microbiológica de aguas</t>
-  </si>
-  <si>
-    <t>Salud mental y comunicación</t>
-  </si>
-  <si>
-    <t>Alimentos funcionales y microbiota</t>
-  </si>
-  <si>
-    <t>Cuidado crítico</t>
-  </si>
-  <si>
-    <t>Enfermedades no transmisibles</t>
-  </si>
-  <si>
-    <t>Enfermedades infecciosas</t>
-  </si>
-  <si>
-    <t>Líneas de investigación</t>
+    <t>Food supply chain, logistics and distribution</t>
+  </si>
+  <si>
+    <t>Microbiological water quality</t>
+  </si>
+  <si>
+    <t>Functional foods and microbiota</t>
+  </si>
+  <si>
+    <t>Critical care</t>
+  </si>
+  <si>
+    <t>Infectious diseases</t>
+  </si>
+  <si>
+    <t>Mental health and communication</t>
+  </si>
+  <si>
+    <t>Non-communicable diseases</t>
+  </si>
+  <si>
+    <t>Line of research</t>
   </si>
 </sst>
 </file>
@@ -1394,12 +1390,9 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,7 +1454,9 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2471,23 +2466,23 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Q373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="25"/>
+    <col min="4" max="4" width="11.5546875" style="24"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>395</v>
+      <c r="A1" t="s">
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>74</v>
@@ -2495,7 +2490,7 @@
       <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>376</v>
       </c>
       <c r="E1" t="s">
@@ -2508,17 +2503,17 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>369</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -2531,17 +2526,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -2554,17 +2549,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>0</v>
       </c>
       <c r="E4" t="s">
@@ -2577,17 +2572,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>0</v>
       </c>
       <c r="E5" t="s">
@@ -2599,32 +2594,32 @@
       <c r="G5" t="s">
         <v>378</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <f>SUM(D:D)</f>
         <v>1341</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>0</v>
       </c>
       <c r="E6" t="s">
@@ -2636,35 +2631,35 @@
       <c r="G6" t="s">
         <v>378</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <f>SUM(F:F)</f>
         <v>1133</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <f>1-(K6/K5)</f>
         <v>0.15510812826249065</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>0</v>
       </c>
       <c r="E7" t="s">
@@ -2676,27 +2671,27 @@
       <c r="G7" t="s">
         <v>378</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -2708,27 +2703,27 @@
       <c r="G8" t="s">
         <v>378</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>0</v>
       </c>
       <c r="E9" t="s">
@@ -2740,27 +2735,27 @@
       <c r="G9" t="s">
         <v>378</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -2772,34 +2767,34 @@
       <c r="G10" t="s">
         <v>378</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <f>COUNTA(B:B)-1</f>
         <v>372</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <v>1</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>0</v>
       </c>
       <c r="E11" t="s">
@@ -2811,35 +2806,35 @@
       <c r="G11" t="s">
         <v>378</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <f>COUNTIFS(E:E,"Si")</f>
         <v>71</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <f>(K11/K10)</f>
         <v>0.19086021505376344</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>0</v>
       </c>
       <c r="E12" t="s">
@@ -2851,35 +2846,35 @@
       <c r="G12" t="s">
         <v>378</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <f>COUNTIFS(G:G,"Si")</f>
         <v>52</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <f>(K12/K10)</f>
         <v>0.13978494623655913</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>0</v>
       </c>
       <c r="E13" t="s">
@@ -2891,27 +2886,27 @@
       <c r="G13" t="s">
         <v>378</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>0</v>
       </c>
       <c r="E14" t="s">
@@ -2923,27 +2918,27 @@
       <c r="G14" t="s">
         <v>378</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -2955,27 +2950,27 @@
       <c r="G15" t="s">
         <v>378</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -2987,27 +2982,27 @@
       <c r="G16" t="s">
         <v>378</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>0</v>
       </c>
       <c r="E17" t="s">
@@ -3019,27 +3014,27 @@
       <c r="G17" t="s">
         <v>378</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>0</v>
       </c>
       <c r="E18" t="s">
@@ -3051,27 +3046,27 @@
       <c r="G18" t="s">
         <v>378</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>0</v>
       </c>
       <c r="E19" t="s">
@@ -3083,27 +3078,27 @@
       <c r="G19" t="s">
         <v>378</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>0</v>
       </c>
       <c r="E20" t="s">
@@ -3115,27 +3110,27 @@
       <c r="G20" t="s">
         <v>378</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -3147,27 +3142,27 @@
       <c r="G21" t="s">
         <v>378</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>0</v>
       </c>
       <c r="E22" t="s">
@@ -3179,27 +3174,27 @@
       <c r="G22" t="s">
         <v>378</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>12</v>
       </c>
       <c r="E23" t="s">
@@ -3211,27 +3206,27 @@
       <c r="G23" t="s">
         <v>377</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+    </row>
+    <row r="24" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
@@ -3243,27 +3238,27 @@
       <c r="G24" t="s">
         <v>378</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+    </row>
+    <row r="25" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>0</v>
       </c>
       <c r="E25" t="s">
@@ -3275,27 +3270,27 @@
       <c r="G25" t="s">
         <v>378</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>0</v>
       </c>
       <c r="E26" t="s">
@@ -3307,27 +3302,27 @@
       <c r="G26" t="s">
         <v>378</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+    </row>
+    <row r="27" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <v>0</v>
       </c>
       <c r="E27" t="s">
@@ -3339,27 +3334,27 @@
       <c r="G27" t="s">
         <v>378</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>0</v>
       </c>
       <c r="E28" t="s">
@@ -3372,17 +3367,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <v>0</v>
       </c>
       <c r="E29" t="s">
@@ -3395,17 +3390,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>0</v>
       </c>
       <c r="E30" t="s">
@@ -3418,17 +3413,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>3</v>
       </c>
       <c r="E31" t="s">
@@ -3441,17 +3436,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <v>3</v>
       </c>
       <c r="E32" t="s">
@@ -3464,17 +3459,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>0</v>
       </c>
       <c r="E33" t="s">
@@ -3487,17 +3482,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <v>0</v>
       </c>
       <c r="E34" t="s">
@@ -3510,17 +3505,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24">
         <v>0</v>
       </c>
       <c r="E35" t="s">
@@ -3533,17 +3528,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="24">
         <v>0</v>
       </c>
       <c r="E36" t="s">
@@ -3556,17 +3551,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="24">
         <v>0</v>
       </c>
       <c r="E37" t="s">
@@ -3579,17 +3574,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="24">
         <v>0</v>
       </c>
       <c r="E38" t="s">
@@ -3602,17 +3597,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="24">
         <v>0</v>
       </c>
       <c r="E39" t="s">
@@ -3625,17 +3620,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="24">
         <v>0</v>
       </c>
       <c r="E40" t="s">
@@ -3648,17 +3643,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="24">
         <v>0</v>
       </c>
       <c r="E41" t="s">
@@ -3671,17 +3666,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24">
         <v>0</v>
       </c>
       <c r="E42" t="s">
@@ -3694,17 +3689,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="24">
         <v>0</v>
       </c>
       <c r="E43" t="s">
@@ -3717,17 +3712,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C44" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="24">
         <v>0</v>
       </c>
       <c r="E44" t="s">
@@ -3740,17 +3735,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C45" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="24">
         <v>0</v>
       </c>
       <c r="E45" t="s">
@@ -3763,17 +3758,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="24">
         <v>0</v>
       </c>
       <c r="E46" t="s">
@@ -3786,17 +3781,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="24">
         <v>0</v>
       </c>
       <c r="E47" t="s">
@@ -3809,17 +3804,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="24">
         <v>0</v>
       </c>
       <c r="E48" t="s">
@@ -3832,17 +3827,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="24">
         <v>0</v>
       </c>
       <c r="E49" t="s">
@@ -3855,17 +3850,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="24">
         <v>0</v>
       </c>
       <c r="E50" t="s">
@@ -3878,17 +3873,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="24">
         <v>0</v>
       </c>
       <c r="E51" t="s">
@@ -3901,17 +3896,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B52" s="5" t="s">
+    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C52" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="24">
         <v>0</v>
       </c>
       <c r="E52" t="s">
@@ -3924,17 +3919,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="24">
         <v>6</v>
       </c>
       <c r="E53" t="s">
@@ -3947,454 +3942,454 @@
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>378</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="24">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>377</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="24">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>378</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>378</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>378</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>378</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="24">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>378</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>378</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="24">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="24">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>378</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="24">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>378</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="24">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>378</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="24">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>378</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="24">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>378</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="24">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>378</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="24">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>378</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="24">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>378</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="24">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>378</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>388</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="25">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>378</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="25">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>377</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="25">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>378</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="25">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>378</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="25">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>378</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="25">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>378</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="25">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>378</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="25">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>378</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="25">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>378</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="25">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>378</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="25">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>378</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="25">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>378</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="25">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>378</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="25">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>378</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="25">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>378</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="25">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>378</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="25">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>378</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="25">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>378</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="25">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>378</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C73" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="24">
         <v>11</v>
       </c>
       <c r="E73" t="s">
@@ -4408,16 +4403,16 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="A74" t="s">
+        <v>388</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C74" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="24">
         <v>0</v>
       </c>
       <c r="E74" t="s">
@@ -4431,16 +4426,16 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B75" s="8" t="s">
+      <c r="A75" t="s">
+        <v>388</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C75" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="24">
         <v>10</v>
       </c>
       <c r="E75" t="s">
@@ -4454,16 +4449,16 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B76" s="8" t="s">
+      <c r="A76" t="s">
+        <v>388</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C76" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D76" s="24">
         <v>0</v>
       </c>
       <c r="E76" t="s">
@@ -4477,16 +4472,16 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B77" s="8" t="s">
+      <c r="A77" t="s">
+        <v>388</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C77" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="24">
         <v>0</v>
       </c>
       <c r="E77" t="s">
@@ -4500,16 +4495,16 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B78" s="8" t="s">
+      <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C78" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="24">
         <v>0</v>
       </c>
       <c r="E78" t="s">
@@ -4523,16 +4518,16 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="A79" t="s">
+        <v>388</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C79" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="24">
         <v>0</v>
       </c>
       <c r="E79" t="s">
@@ -4546,16 +4541,16 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="A80" t="s">
+        <v>388</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C80" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="24">
         <v>36</v>
       </c>
       <c r="E80" t="s">
@@ -4569,16 +4564,16 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B81" s="8" t="s">
+      <c r="A81" t="s">
+        <v>388</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C81" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="24">
         <v>36</v>
       </c>
       <c r="E81" t="s">
@@ -4592,16 +4587,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B82" s="8" t="s">
+      <c r="A82" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C82" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="24">
         <v>0</v>
       </c>
       <c r="E82" t="s">
@@ -4615,16 +4610,16 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B83" s="8" t="s">
+      <c r="A83" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C83" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="25">
+      <c r="D83" s="24">
         <v>0</v>
       </c>
       <c r="E83" t="s">
@@ -4638,16 +4633,16 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="A84" t="s">
+        <v>388</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C84" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="25">
+      <c r="D84" s="24">
         <v>1</v>
       </c>
       <c r="E84" t="s">
@@ -4661,16 +4656,16 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B85" s="8" t="s">
+      <c r="A85" t="s">
+        <v>388</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C85" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="25">
+      <c r="D85" s="24">
         <v>0</v>
       </c>
       <c r="E85" t="s">
@@ -4684,16 +4679,16 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B86" s="8" t="s">
+      <c r="A86" t="s">
+        <v>388</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C86" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="25">
+      <c r="D86" s="24">
         <v>1</v>
       </c>
       <c r="E86" t="s">
@@ -4707,16 +4702,16 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B87" s="8" t="s">
+      <c r="A87" t="s">
+        <v>388</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C87" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="25">
+      <c r="D87" s="24">
         <v>0</v>
       </c>
       <c r="E87" t="s">
@@ -4730,16 +4725,16 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B88" s="8" t="s">
+      <c r="A88" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C88" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="25">
+      <c r="D88" s="24">
         <v>0</v>
       </c>
       <c r="E88" t="s">
@@ -4753,16 +4748,16 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B89" s="8" t="s">
+      <c r="A89" t="s">
+        <v>388</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C89" t="s">
         <v>70</v>
       </c>
-      <c r="D89" s="25">
+      <c r="D89" s="24">
         <v>0</v>
       </c>
       <c r="E89" t="s">
@@ -4776,16 +4771,16 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B90" s="9" t="s">
+      <c r="A90" t="s">
+        <v>388</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>71</v>
       </c>
-      <c r="D90" s="25">
+      <c r="D90" s="24">
         <v>0</v>
       </c>
       <c r="E90" t="s">
@@ -4799,16 +4794,16 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B91" s="10" t="s">
+      <c r="A91" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C91" t="s">
         <v>71</v>
       </c>
-      <c r="D91" s="25">
+      <c r="D91" s="24">
         <v>0</v>
       </c>
       <c r="E91" t="s">
@@ -4822,16 +4817,16 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B92" s="10" t="s">
+      <c r="A92" t="s">
+        <v>388</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C92" t="s">
         <v>71</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="24">
         <v>0</v>
       </c>
       <c r="E92" t="s">
@@ -4845,16 +4840,16 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B93" s="9" t="s">
+      <c r="A93" t="s">
+        <v>388</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C93" t="s">
         <v>71</v>
       </c>
-      <c r="D93" s="25">
+      <c r="D93" s="24">
         <v>0</v>
       </c>
       <c r="E93" t="s">
@@ -4868,16 +4863,16 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="A94" t="s">
+        <v>388</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C94" t="s">
         <v>71</v>
       </c>
-      <c r="D94" s="25">
+      <c r="D94" s="24">
         <v>0</v>
       </c>
       <c r="E94" t="s">
@@ -4891,16 +4886,16 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B95" s="10" t="s">
+      <c r="A95" t="s">
+        <v>388</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C95" t="s">
         <v>71</v>
       </c>
-      <c r="D95" s="25">
+      <c r="D95" s="24">
         <v>0</v>
       </c>
       <c r="E95" t="s">
@@ -4914,16 +4909,16 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B96" s="10" t="s">
+      <c r="A96" t="s">
+        <v>388</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C96" t="s">
         <v>71</v>
       </c>
-      <c r="D96" s="25">
+      <c r="D96" s="24">
         <v>0</v>
       </c>
       <c r="E96" t="s">
@@ -4937,16 +4932,16 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B97" s="10" t="s">
+      <c r="A97" t="s">
+        <v>388</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C97" t="s">
         <v>71</v>
       </c>
-      <c r="D97" s="25">
+      <c r="D97" s="24">
         <v>0</v>
       </c>
       <c r="E97" t="s">
@@ -4960,16 +4955,16 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B98" s="10" t="s">
+      <c r="A98" t="s">
+        <v>388</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C98" t="s">
         <v>71</v>
       </c>
-      <c r="D98" s="25">
+      <c r="D98" s="24">
         <v>0</v>
       </c>
       <c r="E98" t="s">
@@ -4983,16 +4978,16 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B99" s="10" t="s">
+      <c r="A99" t="s">
+        <v>388</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C99" t="s">
         <v>71</v>
       </c>
-      <c r="D99" s="25">
+      <c r="D99" s="24">
         <v>0</v>
       </c>
       <c r="E99" t="s">
@@ -5006,16 +5001,16 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B100" s="10" t="s">
+      <c r="A100" t="s">
+        <v>388</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C100" t="s">
         <v>71</v>
       </c>
-      <c r="D100" s="25">
+      <c r="D100" s="24">
         <v>0</v>
       </c>
       <c r="E100" t="s">
@@ -5029,16 +5024,16 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B101" s="10" t="s">
+      <c r="A101" t="s">
+        <v>388</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C101" t="s">
         <v>71</v>
       </c>
-      <c r="D101" s="25">
+      <c r="D101" s="24">
         <v>0</v>
       </c>
       <c r="E101" t="s">
@@ -5052,16 +5047,16 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B102" s="10" t="s">
+      <c r="A102" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C102" t="s">
         <v>71</v>
       </c>
-      <c r="D102" s="25">
+      <c r="D102" s="24">
         <v>0</v>
       </c>
       <c r="E102" t="s">
@@ -5075,16 +5070,16 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B103" s="10" t="s">
+      <c r="A103" t="s">
+        <v>388</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C103" t="s">
         <v>71</v>
       </c>
-      <c r="D103" s="25">
+      <c r="D103" s="24">
         <v>0</v>
       </c>
       <c r="E103" t="s">
@@ -5098,16 +5093,16 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B104" s="9" t="s">
+      <c r="A104" t="s">
+        <v>388</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C104" t="s">
         <v>71</v>
       </c>
-      <c r="D104" s="25">
+      <c r="D104" s="24">
         <v>0</v>
       </c>
       <c r="E104" t="s">
@@ -5121,16 +5116,16 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B105" s="10" t="s">
+      <c r="A105" t="s">
+        <v>388</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C105" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="25">
+      <c r="D105" s="24">
         <v>0</v>
       </c>
       <c r="E105" t="s">
@@ -5144,16 +5139,16 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B106" s="10" t="s">
+      <c r="A106" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C106" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="25">
+      <c r="D106" s="24">
         <v>0</v>
       </c>
       <c r="E106" t="s">
@@ -5167,16 +5162,16 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B107" s="10" t="s">
+      <c r="A107" t="s">
+        <v>388</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C107" t="s">
         <v>71</v>
       </c>
-      <c r="D107" s="25">
+      <c r="D107" s="24">
         <v>0</v>
       </c>
       <c r="E107" t="s">
@@ -5190,16 +5185,16 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B108" s="10" t="s">
+      <c r="A108" t="s">
+        <v>388</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C108" t="s">
         <v>71</v>
       </c>
-      <c r="D108" s="25">
+      <c r="D108" s="24">
         <v>1</v>
       </c>
       <c r="E108" t="s">
@@ -5213,16 +5208,16 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B109" s="11" t="s">
+      <c r="A109" t="s">
+        <v>388</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C109" t="s">
         <v>72</v>
       </c>
-      <c r="D109" s="25">
+      <c r="D109" s="24">
         <v>0</v>
       </c>
       <c r="E109" t="s">
@@ -5236,16 +5231,16 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B110" s="12" t="s">
+      <c r="A110" t="s">
+        <v>388</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C110" t="s">
         <v>72</v>
       </c>
-      <c r="D110" s="25">
+      <c r="D110" s="24">
         <v>0</v>
       </c>
       <c r="E110" t="s">
@@ -5259,16 +5254,16 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B111" s="12" t="s">
+      <c r="A111" t="s">
+        <v>388</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C111" t="s">
         <v>72</v>
       </c>
-      <c r="D111" s="25">
+      <c r="D111" s="24">
         <v>0</v>
       </c>
       <c r="E111" t="s">
@@ -5282,16 +5277,16 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B112" s="12" t="s">
+      <c r="A112" t="s">
+        <v>388</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C112" t="s">
         <v>72</v>
       </c>
-      <c r="D112" s="25">
+      <c r="D112" s="24">
         <v>0</v>
       </c>
       <c r="E112" t="s">
@@ -5305,16 +5300,16 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B113" s="12" t="s">
+      <c r="A113" t="s">
+        <v>388</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C113" t="s">
         <v>72</v>
       </c>
-      <c r="D113" s="25">
+      <c r="D113" s="24">
         <v>0</v>
       </c>
       <c r="E113" t="s">
@@ -5328,16 +5323,16 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B114" s="12" t="s">
+      <c r="A114" t="s">
+        <v>388</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C114" t="s">
         <v>72</v>
       </c>
-      <c r="D114" s="25">
+      <c r="D114" s="24">
         <v>0</v>
       </c>
       <c r="E114" t="s">
@@ -5351,16 +5346,16 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B115" s="11" t="s">
+      <c r="A115" t="s">
+        <v>388</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C115" t="s">
         <v>72</v>
       </c>
-      <c r="D115" s="25">
+      <c r="D115" s="24">
         <v>20</v>
       </c>
       <c r="E115" t="s">
@@ -5374,16 +5369,16 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B116" s="12" t="s">
+      <c r="A116" t="s">
+        <v>388</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C116" t="s">
         <v>72</v>
       </c>
-      <c r="D116" s="25">
+      <c r="D116" s="24">
         <v>0</v>
       </c>
       <c r="E116" t="s">
@@ -5397,16 +5392,16 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B117" s="12" t="s">
+      <c r="A117" t="s">
+        <v>388</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>119</v>
       </c>
       <c r="C117" t="s">
         <v>72</v>
       </c>
-      <c r="D117" s="25">
+      <c r="D117" s="24">
         <v>0</v>
       </c>
       <c r="E117" t="s">
@@ -5420,16 +5415,16 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B118" s="12" t="s">
+      <c r="A118" t="s">
+        <v>388</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C118" t="s">
         <v>72</v>
       </c>
-      <c r="D118" s="25">
+      <c r="D118" s="24">
         <v>0</v>
       </c>
       <c r="E118" t="s">
@@ -5443,16 +5438,16 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B119" s="12" t="s">
+      <c r="A119" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C119" t="s">
         <v>72</v>
       </c>
-      <c r="D119" s="25">
+      <c r="D119" s="24">
         <v>0</v>
       </c>
       <c r="E119" t="s">
@@ -5466,16 +5461,16 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B120" s="12" t="s">
+      <c r="A120" t="s">
+        <v>388</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C120" t="s">
         <v>72</v>
       </c>
-      <c r="D120" s="25">
+      <c r="D120" s="24">
         <v>0</v>
       </c>
       <c r="E120" t="s">
@@ -5489,16 +5484,16 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="A121" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C121" t="s">
         <v>70</v>
       </c>
-      <c r="D121" s="25">
+      <c r="D121" s="24">
         <v>0</v>
       </c>
       <c r="E121" t="s">
@@ -5512,16 +5507,16 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="A122" t="s">
+        <v>392</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C122" t="s">
         <v>70</v>
       </c>
-      <c r="D122" s="25">
+      <c r="D122" s="24">
         <v>0</v>
       </c>
       <c r="E122" t="s">
@@ -5535,16 +5530,16 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="A123" t="s">
+        <v>392</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C123" t="s">
         <v>70</v>
       </c>
-      <c r="D123" s="25">
+      <c r="D123" s="24">
         <v>0</v>
       </c>
       <c r="E123" t="s">
@@ -5558,16 +5553,16 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B124" s="7" t="s">
+      <c r="A124" t="s">
+        <v>392</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C124" t="s">
         <v>70</v>
       </c>
-      <c r="D124" s="25">
+      <c r="D124" s="24">
         <v>0</v>
       </c>
       <c r="E124" t="s">
@@ -5581,16 +5576,16 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="A125" t="s">
+        <v>392</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C125" t="s">
         <v>70</v>
       </c>
-      <c r="D125" s="25">
+      <c r="D125" s="24">
         <v>0</v>
       </c>
       <c r="E125" t="s">
@@ -5604,16 +5599,16 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="A126" t="s">
+        <v>392</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C126" t="s">
         <v>70</v>
       </c>
-      <c r="D126" s="25">
+      <c r="D126" s="24">
         <v>0</v>
       </c>
       <c r="E126" t="s">
@@ -5627,16 +5622,16 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="A127" t="s">
+        <v>392</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C127" t="s">
         <v>70</v>
       </c>
-      <c r="D127" s="25">
+      <c r="D127" s="24">
         <v>0</v>
       </c>
       <c r="E127" t="s">
@@ -5650,16 +5645,16 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B128" s="7" t="s">
+      <c r="A128" t="s">
+        <v>392</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C128" t="s">
         <v>70</v>
       </c>
-      <c r="D128" s="25">
+      <c r="D128" s="24">
         <v>0</v>
       </c>
       <c r="E128" t="s">
@@ -5673,16 +5668,16 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="A129" t="s">
+        <v>392</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C129" t="s">
         <v>70</v>
       </c>
-      <c r="D129" s="25">
+      <c r="D129" s="24">
         <v>0</v>
       </c>
       <c r="E129" t="s">
@@ -5696,16 +5691,16 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B130" s="7" t="s">
+      <c r="A130" t="s">
+        <v>392</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C130" t="s">
         <v>70</v>
       </c>
-      <c r="D130" s="25">
+      <c r="D130" s="24">
         <v>0</v>
       </c>
       <c r="E130" t="s">
@@ -5719,16 +5714,16 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B131" s="7" t="s">
+      <c r="A131" t="s">
+        <v>392</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C131" t="s">
         <v>70</v>
       </c>
-      <c r="D131" s="25">
+      <c r="D131" s="24">
         <v>0</v>
       </c>
       <c r="E131" t="s">
@@ -5742,16 +5737,16 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B132" s="7" t="s">
+      <c r="A132" t="s">
+        <v>392</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C132" t="s">
         <v>70</v>
       </c>
-      <c r="D132" s="25">
+      <c r="D132" s="24">
         <v>0</v>
       </c>
       <c r="E132" t="s">
@@ -5765,16 +5760,16 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B133" s="7" t="s">
+      <c r="A133" t="s">
+        <v>392</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C133" t="s">
         <v>70</v>
       </c>
-      <c r="D133" s="25">
+      <c r="D133" s="24">
         <v>0</v>
       </c>
       <c r="E133" t="s">
@@ -5788,16 +5783,16 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="A134" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C134" t="s">
         <v>70</v>
       </c>
-      <c r="D134" s="25">
+      <c r="D134" s="24">
         <v>0</v>
       </c>
       <c r="E134" t="s">
@@ -5811,16 +5806,16 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B135" s="7" t="s">
+      <c r="A135" t="s">
+        <v>392</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C135" t="s">
         <v>70</v>
       </c>
-      <c r="D135" s="25">
+      <c r="D135" s="24">
         <v>0</v>
       </c>
       <c r="E135" t="s">
@@ -5834,16 +5829,16 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="A136" t="s">
+        <v>392</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C136" t="s">
         <v>70</v>
       </c>
-      <c r="D136" s="25">
+      <c r="D136" s="24">
         <v>0</v>
       </c>
       <c r="E136" t="s">
@@ -5857,16 +5852,16 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B137" s="7" t="s">
+      <c r="A137" t="s">
+        <v>392</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C137" t="s">
         <v>70</v>
       </c>
-      <c r="D137" s="25">
+      <c r="D137" s="24">
         <v>0</v>
       </c>
       <c r="E137" t="s">
@@ -5880,16 +5875,16 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B138" s="7" t="s">
+      <c r="A138" t="s">
+        <v>392</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C138" t="s">
         <v>70</v>
       </c>
-      <c r="D138" s="25">
+      <c r="D138" s="24">
         <v>0</v>
       </c>
       <c r="E138" t="s">
@@ -5903,16 +5898,16 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B139" s="7" t="s">
+      <c r="A139" t="s">
+        <v>392</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C139" t="s">
         <v>70</v>
       </c>
-      <c r="D139" s="25">
+      <c r="D139" s="24">
         <v>0</v>
       </c>
       <c r="E139" t="s">
@@ -5926,16 +5921,16 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B140" s="7" t="s">
+      <c r="A140" t="s">
+        <v>392</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C140" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="25">
+      <c r="D140" s="24">
         <v>0</v>
       </c>
       <c r="E140" t="s">
@@ -5949,16 +5944,16 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B141" s="7" t="s">
+      <c r="A141" t="s">
+        <v>392</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C141" t="s">
         <v>70</v>
       </c>
-      <c r="D141" s="25">
+      <c r="D141" s="24">
         <v>0</v>
       </c>
       <c r="E141" t="s">
@@ -5972,16 +5967,16 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="A142" t="s">
+        <v>392</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C142" t="s">
         <v>70</v>
       </c>
-      <c r="D142" s="25">
+      <c r="D142" s="24">
         <v>0</v>
       </c>
       <c r="E142" t="s">
@@ -5995,16 +5990,16 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B143" s="13" t="s">
+      <c r="A143" t="s">
+        <v>392</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C143" t="s">
         <v>71</v>
       </c>
-      <c r="D143" s="25">
+      <c r="D143" s="24">
         <v>0</v>
       </c>
       <c r="E143" t="s">
@@ -6018,16 +6013,16 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B144" s="14" t="s">
+      <c r="A144" t="s">
+        <v>392</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>130</v>
       </c>
       <c r="C144" t="s">
         <v>71</v>
       </c>
-      <c r="D144" s="25">
+      <c r="D144" s="24">
         <v>48</v>
       </c>
       <c r="E144" t="s">
@@ -6041,16 +6036,16 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B145" s="14" t="s">
+      <c r="A145" t="s">
+        <v>392</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C145" t="s">
         <v>71</v>
       </c>
-      <c r="D145" s="25">
+      <c r="D145" s="24">
         <v>5</v>
       </c>
       <c r="E145" t="s">
@@ -6064,16 +6059,16 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B146" s="13" t="s">
+      <c r="A146" t="s">
+        <v>392</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C146" t="s">
         <v>71</v>
       </c>
-      <c r="D146" s="25">
+      <c r="D146" s="24">
         <v>0</v>
       </c>
       <c r="E146" t="s">
@@ -6087,16 +6082,16 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B147" s="13" t="s">
+      <c r="A147" t="s">
+        <v>392</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C147" t="s">
         <v>71</v>
       </c>
-      <c r="D147" s="25">
+      <c r="D147" s="24">
         <v>0</v>
       </c>
       <c r="E147" t="s">
@@ -6110,16 +6105,16 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B148" s="13" t="s">
+      <c r="A148" t="s">
+        <v>392</v>
+      </c>
+      <c r="B148" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C148" t="s">
         <v>71</v>
       </c>
-      <c r="D148" s="25">
+      <c r="D148" s="24">
         <v>1</v>
       </c>
       <c r="E148" t="s">
@@ -6133,16 +6128,16 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B149" s="13" t="s">
+      <c r="A149" t="s">
+        <v>392</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C149" t="s">
         <v>71</v>
       </c>
-      <c r="D149" s="25">
+      <c r="D149" s="24">
         <v>2</v>
       </c>
       <c r="E149" t="s">
@@ -6156,16 +6151,16 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B150" s="13" t="s">
+      <c r="A150" t="s">
+        <v>392</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C150" t="s">
         <v>71</v>
       </c>
-      <c r="D150" s="25">
+      <c r="D150" s="24">
         <v>0</v>
       </c>
       <c r="E150" t="s">
@@ -6179,16 +6174,16 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B151" s="13" t="s">
+      <c r="A151" t="s">
+        <v>392</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C151" t="s">
         <v>71</v>
       </c>
-      <c r="D151" s="25">
+      <c r="D151" s="24">
         <v>1</v>
       </c>
       <c r="E151" t="s">
@@ -6202,16 +6197,16 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B152" s="13" t="s">
+      <c r="A152" t="s">
+        <v>392</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>138</v>
       </c>
       <c r="C152" t="s">
         <v>71</v>
       </c>
-      <c r="D152" s="25">
+      <c r="D152" s="24">
         <v>0</v>
       </c>
       <c r="E152" t="s">
@@ -6225,16 +6220,16 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B153" s="13" t="s">
+      <c r="A153" t="s">
+        <v>392</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C153" t="s">
         <v>71</v>
       </c>
-      <c r="D153" s="25">
+      <c r="D153" s="24">
         <v>0</v>
       </c>
       <c r="E153" t="s">
@@ -6248,16 +6243,16 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B154" s="13" t="s">
+      <c r="A154" t="s">
+        <v>392</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>153</v>
       </c>
       <c r="C154" t="s">
         <v>71</v>
       </c>
-      <c r="D154" s="25">
+      <c r="D154" s="24">
         <v>0</v>
       </c>
       <c r="E154" t="s">
@@ -6271,16 +6266,16 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B155" s="13" t="s">
+      <c r="A155" t="s">
+        <v>392</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>154</v>
       </c>
       <c r="C155" t="s">
         <v>71</v>
       </c>
-      <c r="D155" s="25">
+      <c r="D155" s="24">
         <v>0</v>
       </c>
       <c r="E155" t="s">
@@ -6294,16 +6289,16 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B156" s="13" t="s">
+      <c r="A156" t="s">
+        <v>392</v>
+      </c>
+      <c r="B156" s="12" t="s">
         <v>155</v>
       </c>
       <c r="C156" t="s">
         <v>71</v>
       </c>
-      <c r="D156" s="25">
+      <c r="D156" s="24">
         <v>0</v>
       </c>
       <c r="E156" t="s">
@@ -6317,16 +6312,16 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B157" s="13" t="s">
+      <c r="A157" t="s">
+        <v>392</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C157" t="s">
         <v>71</v>
       </c>
-      <c r="D157" s="25">
+      <c r="D157" s="24">
         <v>0</v>
       </c>
       <c r="E157" t="s">
@@ -6340,16 +6335,16 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B158" s="13" t="s">
+      <c r="A158" t="s">
+        <v>392</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C158" t="s">
         <v>71</v>
       </c>
-      <c r="D158" s="25">
+      <c r="D158" s="24">
         <v>0</v>
       </c>
       <c r="E158" t="s">
@@ -6363,16 +6358,16 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B159" s="13" t="s">
+      <c r="A159" t="s">
+        <v>392</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C159" t="s">
         <v>71</v>
       </c>
-      <c r="D159" s="25">
+      <c r="D159" s="24">
         <v>0</v>
       </c>
       <c r="E159" t="s">
@@ -6386,16 +6381,16 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B160" s="11" t="s">
+      <c r="A160" t="s">
+        <v>392</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C160" t="s">
         <v>72</v>
       </c>
-      <c r="D160" s="25">
+      <c r="D160" s="24">
         <v>0</v>
       </c>
       <c r="E160" t="s">
@@ -6409,16 +6404,16 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B161" s="12" t="s">
+      <c r="A161" t="s">
+        <v>392</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C161" t="s">
         <v>72</v>
       </c>
-      <c r="D161" s="25">
+      <c r="D161" s="24">
         <v>7</v>
       </c>
       <c r="E161" t="s">
@@ -6432,16 +6427,16 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B162" s="12" t="s">
+      <c r="A162" t="s">
+        <v>392</v>
+      </c>
+      <c r="B162" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C162" t="s">
         <v>72</v>
       </c>
-      <c r="D162" s="25">
+      <c r="D162" s="24">
         <v>0</v>
       </c>
       <c r="E162" t="s">
@@ -6455,16 +6450,16 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B163" s="12" t="s">
+      <c r="A163" t="s">
+        <v>392</v>
+      </c>
+      <c r="B163" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C163" t="s">
         <v>72</v>
       </c>
-      <c r="D163" s="25">
+      <c r="D163" s="24">
         <v>0</v>
       </c>
       <c r="E163" t="s">
@@ -6478,16 +6473,16 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B164" s="12" t="s">
+      <c r="A164" t="s">
+        <v>392</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C164" t="s">
         <v>72</v>
       </c>
-      <c r="D164" s="25">
+      <c r="D164" s="24">
         <v>0</v>
       </c>
       <c r="E164" t="s">
@@ -6501,16 +6496,16 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B165" s="12" t="s">
+      <c r="A165" t="s">
+        <v>392</v>
+      </c>
+      <c r="B165" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C165" t="s">
         <v>72</v>
       </c>
-      <c r="D165" s="25">
+      <c r="D165" s="24">
         <v>0</v>
       </c>
       <c r="E165" t="s">
@@ -6524,16 +6519,16 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B166" s="11" t="s">
+      <c r="A166" t="s">
+        <v>392</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C166" t="s">
         <v>72</v>
       </c>
-      <c r="D166" s="25">
+      <c r="D166" s="24">
         <v>0</v>
       </c>
       <c r="E166" t="s">
@@ -6547,16 +6542,16 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B167" s="11" t="s">
+      <c r="A167" t="s">
+        <v>392</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C167" t="s">
         <v>72</v>
       </c>
-      <c r="D167" s="25">
+      <c r="D167" s="24">
         <v>0</v>
       </c>
       <c r="E167" t="s">
@@ -6570,16 +6565,16 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B168" s="11" t="s">
+      <c r="A168" t="s">
+        <v>392</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C168" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="25">
+      <c r="D168" s="24">
         <v>0</v>
       </c>
       <c r="E168" t="s">
@@ -6593,16 +6588,16 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B169" s="11" t="s">
+      <c r="A169" t="s">
+        <v>392</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C169" t="s">
         <v>72</v>
       </c>
-      <c r="D169" s="25">
+      <c r="D169" s="24">
         <v>0</v>
       </c>
       <c r="E169" t="s">
@@ -6616,16 +6611,16 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B170" s="11" t="s">
+      <c r="A170" t="s">
+        <v>392</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>143</v>
       </c>
       <c r="C170" t="s">
         <v>72</v>
       </c>
-      <c r="D170" s="25">
+      <c r="D170" s="24">
         <v>0</v>
       </c>
       <c r="E170" t="s">
@@ -6639,16 +6634,16 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B171" s="11" t="s">
+      <c r="A171" t="s">
+        <v>392</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C171" t="s">
         <v>72</v>
       </c>
-      <c r="D171" s="25">
+      <c r="D171" s="24">
         <v>0</v>
       </c>
       <c r="E171" t="s">
@@ -6662,16 +6657,16 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B172" s="11" t="s">
+      <c r="A172" t="s">
+        <v>392</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C172" t="s">
         <v>72</v>
       </c>
-      <c r="D172" s="25">
+      <c r="D172" s="24">
         <v>0</v>
       </c>
       <c r="E172" t="s">
@@ -6685,16 +6680,16 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B173" s="11" t="s">
+      <c r="A173" t="s">
+        <v>392</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C173" t="s">
         <v>72</v>
       </c>
-      <c r="D173" s="25">
+      <c r="D173" s="24">
         <v>0</v>
       </c>
       <c r="E173" t="s">
@@ -6708,16 +6703,16 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B174" s="11" t="s">
+      <c r="A174" t="s">
+        <v>392</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>147</v>
       </c>
       <c r="C174" t="s">
         <v>72</v>
       </c>
-      <c r="D174" s="25">
+      <c r="D174" s="24">
         <v>0</v>
       </c>
       <c r="E174" t="s">
@@ -6731,16 +6726,16 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B175" s="11" t="s">
+      <c r="A175" t="s">
+        <v>392</v>
+      </c>
+      <c r="B175" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C175" t="s">
         <v>72</v>
       </c>
-      <c r="D175" s="25">
+      <c r="D175" s="24">
         <v>0</v>
       </c>
       <c r="E175" t="s">
@@ -6754,16 +6749,16 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B176" s="11" t="s">
+      <c r="A176" t="s">
+        <v>392</v>
+      </c>
+      <c r="B176" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C176" t="s">
         <v>72</v>
       </c>
-      <c r="D176" s="25">
+      <c r="D176" s="24">
         <v>0</v>
       </c>
       <c r="E176" t="s">
@@ -6777,16 +6772,16 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B177" s="11" t="s">
+      <c r="A177" t="s">
+        <v>392</v>
+      </c>
+      <c r="B177" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C177" t="s">
         <v>72</v>
       </c>
-      <c r="D177" s="25">
+      <c r="D177" s="24">
         <v>0</v>
       </c>
       <c r="E177" t="s">
@@ -6800,16 +6795,16 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B178" s="11" t="s">
+      <c r="A178" t="s">
+        <v>392</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C178" t="s">
         <v>72</v>
       </c>
-      <c r="D178" s="25">
+      <c r="D178" s="24">
         <v>0</v>
       </c>
       <c r="E178" t="s">
@@ -6823,16 +6818,16 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B179" s="11" t="s">
+      <c r="A179" t="s">
+        <v>392</v>
+      </c>
+      <c r="B179" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
         <v>72</v>
       </c>
-      <c r="D179" s="25">
+      <c r="D179" s="24">
         <v>0</v>
       </c>
       <c r="E179" t="s">
@@ -6846,16 +6841,16 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B180" s="11" t="s">
+      <c r="A180" t="s">
+        <v>392</v>
+      </c>
+      <c r="B180" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
         <v>72</v>
       </c>
-      <c r="D180" s="25">
+      <c r="D180" s="24">
         <v>8</v>
       </c>
       <c r="E180" t="s">
@@ -6869,16 +6864,16 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B181" s="11" t="s">
+      <c r="A181" t="s">
+        <v>392</v>
+      </c>
+      <c r="B181" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
         <v>72</v>
       </c>
-      <c r="D181" s="25">
+      <c r="D181" s="24">
         <v>0</v>
       </c>
       <c r="E181" t="s">
@@ -6892,16 +6887,16 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B182" s="11" t="s">
+      <c r="A182" t="s">
+        <v>392</v>
+      </c>
+      <c r="B182" s="10" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
         <v>72</v>
       </c>
-      <c r="D182" s="25">
+      <c r="D182" s="24">
         <v>0</v>
       </c>
       <c r="E182" t="s">
@@ -6915,16 +6910,16 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B183" s="11" t="s">
+      <c r="A183" t="s">
+        <v>392</v>
+      </c>
+      <c r="B183" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
         <v>72</v>
       </c>
-      <c r="D183" s="25">
+      <c r="D183" s="24">
         <v>0</v>
       </c>
       <c r="E183" t="s">
@@ -6938,16 +6933,16 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B184" s="11" t="s">
+      <c r="A184" t="s">
+        <v>392</v>
+      </c>
+      <c r="B184" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
         <v>72</v>
       </c>
-      <c r="D184" s="25">
+      <c r="D184" s="24">
         <v>0</v>
       </c>
       <c r="E184" t="s">
@@ -6961,16 +6956,16 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B185" s="11" t="s">
+      <c r="A185" t="s">
+        <v>392</v>
+      </c>
+      <c r="B185" s="10" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
         <v>72</v>
       </c>
-      <c r="D185" s="25">
+      <c r="D185" s="24">
         <v>0</v>
       </c>
       <c r="E185" t="s">
@@ -6984,16 +6979,16 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B186" s="11" t="s">
+      <c r="A186" t="s">
+        <v>392</v>
+      </c>
+      <c r="B186" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
         <v>72</v>
       </c>
-      <c r="D186" s="25">
+      <c r="D186" s="24">
         <v>0</v>
       </c>
       <c r="E186" t="s">
@@ -7007,16 +7002,16 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B187" s="7" t="s">
+      <c r="A187" t="s">
+        <v>389</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C187" t="s">
         <v>70</v>
       </c>
-      <c r="D187" s="25">
+      <c r="D187" s="24">
         <v>5</v>
       </c>
       <c r="E187" t="s">
@@ -7030,16 +7025,16 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B188" s="7" t="s">
+      <c r="A188" t="s">
+        <v>389</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>205</v>
       </c>
       <c r="C188" t="s">
         <v>70</v>
       </c>
-      <c r="D188" s="25">
+      <c r="D188" s="24">
         <v>0</v>
       </c>
       <c r="E188" t="s">
@@ -7053,16 +7048,16 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B189" s="7" t="s">
+      <c r="A189" t="s">
+        <v>389</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C189" t="s">
         <v>70</v>
       </c>
-      <c r="D189" s="25">
+      <c r="D189" s="24">
         <v>2</v>
       </c>
       <c r="E189" t="s">
@@ -7076,16 +7071,16 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B190" s="7" t="s">
+      <c r="A190" t="s">
+        <v>389</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C190" t="s">
         <v>70</v>
       </c>
-      <c r="D190" s="25">
+      <c r="D190" s="24">
         <v>0</v>
       </c>
       <c r="E190" t="s">
@@ -7099,16 +7094,16 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B191" s="7" t="s">
+      <c r="A191" t="s">
+        <v>389</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C191" t="s">
         <v>70</v>
       </c>
-      <c r="D191" s="25">
+      <c r="D191" s="24">
         <v>0</v>
       </c>
       <c r="E191" t="s">
@@ -7122,16 +7117,16 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B192" s="7" t="s">
+      <c r="A192" t="s">
+        <v>389</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C192" t="s">
         <v>70</v>
       </c>
-      <c r="D192" s="25">
+      <c r="D192" s="24">
         <v>0</v>
       </c>
       <c r="E192" t="s">
@@ -7145,16 +7140,16 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B193" s="7" t="s">
+      <c r="A193" t="s">
+        <v>389</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>210</v>
       </c>
       <c r="C193" t="s">
         <v>70</v>
       </c>
-      <c r="D193" s="25">
+      <c r="D193" s="24">
         <v>0</v>
       </c>
       <c r="E193" t="s">
@@ -7168,16 +7163,16 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B194" s="7" t="s">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C194" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="25">
+      <c r="D194" s="24">
         <v>0</v>
       </c>
       <c r="E194" t="s">
@@ -7191,16 +7186,16 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B195" s="7" t="s">
+      <c r="A195" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>189</v>
       </c>
       <c r="C195" t="s">
         <v>70</v>
       </c>
-      <c r="D195" s="25">
+      <c r="D195" s="24">
         <v>0</v>
       </c>
       <c r="E195" t="s">
@@ -7214,16 +7209,16 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B196" s="7" t="s">
+      <c r="A196" t="s">
+        <v>389</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C196" t="s">
         <v>70</v>
       </c>
-      <c r="D196" s="25">
+      <c r="D196" s="24">
         <v>0</v>
       </c>
       <c r="E196" t="s">
@@ -7237,16 +7232,16 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B197" s="7" t="s">
+      <c r="A197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>244</v>
       </c>
       <c r="C197" t="s">
         <v>70</v>
       </c>
-      <c r="D197" s="25">
+      <c r="D197" s="24">
         <v>0</v>
       </c>
       <c r="E197" t="s">
@@ -7260,16 +7255,16 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B198" s="7" t="s">
+      <c r="A198" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C198" t="s">
         <v>70</v>
       </c>
-      <c r="D198" s="25">
+      <c r="D198" s="24">
         <v>0</v>
       </c>
       <c r="E198" t="s">
@@ -7283,16 +7278,16 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B199" s="7" t="s">
+      <c r="A199" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>246</v>
       </c>
       <c r="C199" t="s">
         <v>70</v>
       </c>
-      <c r="D199" s="25">
+      <c r="D199" s="24">
         <v>0</v>
       </c>
       <c r="E199" t="s">
@@ -7306,16 +7301,16 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B200" s="7" t="s">
+      <c r="A200" t="s">
+        <v>389</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C200" t="s">
         <v>70</v>
       </c>
-      <c r="D200" s="25">
+      <c r="D200" s="24">
         <v>0</v>
       </c>
       <c r="E200" t="s">
@@ -7329,16 +7324,16 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B201" s="7" t="s">
+      <c r="A201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C201" t="s">
         <v>70</v>
       </c>
-      <c r="D201" s="25">
+      <c r="D201" s="24">
         <v>0</v>
       </c>
       <c r="E201" t="s">
@@ -7352,16 +7347,16 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B202" s="7" t="s">
+      <c r="A202" t="s">
+        <v>389</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C202" t="s">
         <v>70</v>
       </c>
-      <c r="D202" s="25">
+      <c r="D202" s="24">
         <v>0</v>
       </c>
       <c r="E202" t="s">
@@ -7375,16 +7370,16 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B203" s="13" t="s">
+      <c r="A203" t="s">
+        <v>389</v>
+      </c>
+      <c r="B203" s="12" t="s">
         <v>191</v>
       </c>
       <c r="C203" t="s">
         <v>71</v>
       </c>
-      <c r="D203" s="25">
+      <c r="D203" s="24">
         <v>0</v>
       </c>
       <c r="E203" t="s">
@@ -7398,16 +7393,16 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B204" s="13" t="s">
+      <c r="A204" t="s">
+        <v>389</v>
+      </c>
+      <c r="B204" s="12" t="s">
         <v>192</v>
       </c>
       <c r="C204" t="s">
         <v>71</v>
       </c>
-      <c r="D204" s="25">
+      <c r="D204" s="24">
         <v>0</v>
       </c>
       <c r="E204" t="s">
@@ -7421,16 +7416,16 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B205" s="13" t="s">
+      <c r="A205" t="s">
+        <v>389</v>
+      </c>
+      <c r="B205" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C205" t="s">
         <v>71</v>
       </c>
-      <c r="D205" s="25">
+      <c r="D205" s="24">
         <v>0</v>
       </c>
       <c r="E205" t="s">
@@ -7444,16 +7439,16 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B206" s="13" t="s">
+      <c r="A206" t="s">
+        <v>389</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C206" t="s">
         <v>71</v>
       </c>
-      <c r="D206" s="25">
+      <c r="D206" s="24">
         <v>2</v>
       </c>
       <c r="E206" t="s">
@@ -7467,16 +7462,16 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B207" s="13" t="s">
+      <c r="A207" t="s">
+        <v>389</v>
+      </c>
+      <c r="B207" s="12" t="s">
         <v>215</v>
       </c>
       <c r="C207" t="s">
         <v>71</v>
       </c>
-      <c r="D207" s="25">
+      <c r="D207" s="24">
         <v>0</v>
       </c>
       <c r="E207" t="s">
@@ -7490,16 +7485,16 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B208" s="13" t="s">
+      <c r="A208" t="s">
+        <v>389</v>
+      </c>
+      <c r="B208" s="12" t="s">
         <v>216</v>
       </c>
       <c r="C208" t="s">
         <v>71</v>
       </c>
-      <c r="D208" s="25">
+      <c r="D208" s="24">
         <v>0</v>
       </c>
       <c r="E208" t="s">
@@ -7513,16 +7508,16 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B209" s="13" t="s">
+      <c r="A209" t="s">
+        <v>389</v>
+      </c>
+      <c r="B209" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C209" t="s">
         <v>71</v>
       </c>
-      <c r="D209" s="25">
+      <c r="D209" s="24">
         <v>0</v>
       </c>
       <c r="E209" t="s">
@@ -7536,16 +7531,16 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B210" s="13" t="s">
+      <c r="A210" t="s">
+        <v>389</v>
+      </c>
+      <c r="B210" s="12" t="s">
         <v>218</v>
       </c>
       <c r="C210" t="s">
         <v>71</v>
       </c>
-      <c r="D210" s="25">
+      <c r="D210" s="24">
         <v>0</v>
       </c>
       <c r="E210" t="s">
@@ -7559,16 +7554,16 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B211" s="13" t="s">
+      <c r="A211" t="s">
+        <v>389</v>
+      </c>
+      <c r="B211" s="12" t="s">
         <v>219</v>
       </c>
       <c r="C211" t="s">
         <v>71</v>
       </c>
-      <c r="D211" s="25">
+      <c r="D211" s="24">
         <v>0</v>
       </c>
       <c r="E211" t="s">
@@ -7582,16 +7577,16 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B212" s="13" t="s">
+      <c r="A212" t="s">
+        <v>389</v>
+      </c>
+      <c r="B212" s="12" t="s">
         <v>220</v>
       </c>
       <c r="C212" t="s">
         <v>71</v>
       </c>
-      <c r="D212" s="25">
+      <c r="D212" s="24">
         <v>0</v>
       </c>
       <c r="E212" t="s">
@@ -7605,16 +7600,16 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B213" s="13" t="s">
+      <c r="A213" t="s">
+        <v>389</v>
+      </c>
+      <c r="B213" s="12" t="s">
         <v>221</v>
       </c>
       <c r="C213" t="s">
         <v>71</v>
       </c>
-      <c r="D213" s="25">
+      <c r="D213" s="24">
         <v>0</v>
       </c>
       <c r="E213" t="s">
@@ -7628,16 +7623,16 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B214" s="13" t="s">
+      <c r="A214" t="s">
+        <v>389</v>
+      </c>
+      <c r="B214" s="12" t="s">
         <v>222</v>
       </c>
       <c r="C214" t="s">
         <v>71</v>
       </c>
-      <c r="D214" s="25">
+      <c r="D214" s="24">
         <v>0</v>
       </c>
       <c r="E214" t="s">
@@ -7651,16 +7646,16 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B215" s="13" t="s">
+      <c r="A215" t="s">
+        <v>389</v>
+      </c>
+      <c r="B215" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C215" t="s">
         <v>71</v>
       </c>
-      <c r="D215" s="25">
+      <c r="D215" s="24">
         <v>0</v>
       </c>
       <c r="E215" t="s">
@@ -7674,16 +7669,16 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B216" s="13" t="s">
+      <c r="A216" t="s">
+        <v>389</v>
+      </c>
+      <c r="B216" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C216" t="s">
         <v>71</v>
       </c>
-      <c r="D216" s="25">
+      <c r="D216" s="24">
         <v>0</v>
       </c>
       <c r="E216" t="s">
@@ -7697,16 +7692,16 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B217" s="13" t="s">
+      <c r="A217" t="s">
+        <v>389</v>
+      </c>
+      <c r="B217" s="12" t="s">
         <v>225</v>
       </c>
       <c r="C217" t="s">
         <v>71</v>
       </c>
-      <c r="D217" s="25">
+      <c r="D217" s="24">
         <v>0</v>
       </c>
       <c r="E217" t="s">
@@ -7720,16 +7715,16 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B218" s="13" t="s">
+      <c r="A218" t="s">
+        <v>389</v>
+      </c>
+      <c r="B218" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C218" t="s">
         <v>71</v>
       </c>
-      <c r="D218" s="25">
+      <c r="D218" s="24">
         <v>0</v>
       </c>
       <c r="E218" t="s">
@@ -7743,16 +7738,16 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B219" s="13" t="s">
+      <c r="A219" t="s">
+        <v>389</v>
+      </c>
+      <c r="B219" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C219" t="s">
         <v>71</v>
       </c>
-      <c r="D219" s="25">
+      <c r="D219" s="24">
         <v>0</v>
       </c>
       <c r="E219" t="s">
@@ -7766,16 +7761,16 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B220" s="13" t="s">
+      <c r="A220" t="s">
+        <v>389</v>
+      </c>
+      <c r="B220" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C220" t="s">
         <v>71</v>
       </c>
-      <c r="D220" s="25">
+      <c r="D220" s="24">
         <v>0</v>
       </c>
       <c r="E220" t="s">
@@ -7789,16 +7784,16 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B221" s="13" t="s">
+      <c r="A221" t="s">
+        <v>389</v>
+      </c>
+      <c r="B221" s="12" t="s">
         <v>237</v>
       </c>
       <c r="C221" t="s">
         <v>71</v>
       </c>
-      <c r="D221" s="25">
+      <c r="D221" s="24">
         <v>0</v>
       </c>
       <c r="E221" t="s">
@@ -7812,16 +7807,16 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B222" s="13" t="s">
+      <c r="A222" t="s">
+        <v>389</v>
+      </c>
+      <c r="B222" s="12" t="s">
         <v>238</v>
       </c>
       <c r="C222" t="s">
         <v>71</v>
       </c>
-      <c r="D222" s="25">
+      <c r="D222" s="24">
         <v>0</v>
       </c>
       <c r="E222" t="s">
@@ -7835,16 +7830,16 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B223" s="13" t="s">
+      <c r="A223" t="s">
+        <v>389</v>
+      </c>
+      <c r="B223" s="12" t="s">
         <v>239</v>
       </c>
       <c r="C223" t="s">
         <v>71</v>
       </c>
-      <c r="D223" s="25">
+      <c r="D223" s="24">
         <v>0</v>
       </c>
       <c r="E223" t="s">
@@ -7858,16 +7853,16 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B224" s="13" t="s">
+      <c r="A224" t="s">
+        <v>389</v>
+      </c>
+      <c r="B224" s="12" t="s">
         <v>240</v>
       </c>
       <c r="C224" t="s">
         <v>71</v>
       </c>
-      <c r="D224" s="25">
+      <c r="D224" s="24">
         <v>0</v>
       </c>
       <c r="E224" t="s">
@@ -7881,16 +7876,16 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B225" s="13" t="s">
+      <c r="A225" t="s">
+        <v>389</v>
+      </c>
+      <c r="B225" s="12" t="s">
         <v>241</v>
       </c>
       <c r="C225" t="s">
         <v>71</v>
       </c>
-      <c r="D225" s="25">
+      <c r="D225" s="24">
         <v>0</v>
       </c>
       <c r="E225" t="s">
@@ -7904,16 +7899,16 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B226" s="13" t="s">
+      <c r="A226" t="s">
+        <v>389</v>
+      </c>
+      <c r="B226" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C226" t="s">
         <v>71</v>
       </c>
-      <c r="D226" s="25">
+      <c r="D226" s="24">
         <v>0</v>
       </c>
       <c r="E226" t="s">
@@ -7927,16 +7922,16 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B227" s="13" t="s">
+      <c r="A227" t="s">
+        <v>389</v>
+      </c>
+      <c r="B227" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C227" t="s">
         <v>71</v>
       </c>
-      <c r="D227" s="25">
+      <c r="D227" s="24">
         <v>0</v>
       </c>
       <c r="E227" t="s">
@@ -7950,16 +7945,16 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B228" s="13" t="s">
+      <c r="A228" t="s">
+        <v>389</v>
+      </c>
+      <c r="B228" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C228" t="s">
         <v>71</v>
       </c>
-      <c r="D228" s="25">
+      <c r="D228" s="24">
         <v>0</v>
       </c>
       <c r="E228" t="s">
@@ -7973,16 +7968,16 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B229" s="13" t="s">
+      <c r="A229" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229" s="12" t="s">
         <v>251</v>
       </c>
       <c r="C229" t="s">
         <v>71</v>
       </c>
-      <c r="D229" s="25">
+      <c r="D229" s="24">
         <v>0</v>
       </c>
       <c r="E229" t="s">
@@ -7996,16 +7991,16 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B230" s="13" t="s">
+      <c r="A230" t="s">
+        <v>389</v>
+      </c>
+      <c r="B230" s="12" t="s">
         <v>252</v>
       </c>
       <c r="C230" t="s">
         <v>71</v>
       </c>
-      <c r="D230" s="25">
+      <c r="D230" s="24">
         <v>0</v>
       </c>
       <c r="E230" t="s">
@@ -8019,16 +8014,16 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B231" s="13" t="s">
+      <c r="A231" t="s">
+        <v>389</v>
+      </c>
+      <c r="B231" s="12" t="s">
         <v>253</v>
       </c>
       <c r="C231" t="s">
         <v>71</v>
       </c>
-      <c r="D231" s="25">
+      <c r="D231" s="24">
         <v>0</v>
       </c>
       <c r="E231" t="s">
@@ -8042,16 +8037,16 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B232" s="13" t="s">
+      <c r="A232" t="s">
+        <v>389</v>
+      </c>
+      <c r="B232" s="12" t="s">
         <v>254</v>
       </c>
       <c r="C232" t="s">
         <v>71</v>
       </c>
-      <c r="D232" s="25">
+      <c r="D232" s="24">
         <v>0</v>
       </c>
       <c r="E232" t="s">
@@ -8065,16 +8060,16 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B233" s="13" t="s">
+      <c r="A233" t="s">
+        <v>389</v>
+      </c>
+      <c r="B233" s="12" t="s">
         <v>255</v>
       </c>
       <c r="C233" t="s">
         <v>71</v>
       </c>
-      <c r="D233" s="25">
+      <c r="D233" s="24">
         <v>0</v>
       </c>
       <c r="E233" t="s">
@@ -8088,16 +8083,16 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B234" s="15" t="s">
+      <c r="A234" t="s">
+        <v>389</v>
+      </c>
+      <c r="B234" s="14" t="s">
         <v>195</v>
       </c>
       <c r="C234" t="s">
         <v>72</v>
       </c>
-      <c r="D234" s="25">
+      <c r="D234" s="24">
         <v>0</v>
       </c>
       <c r="E234" t="s">
@@ -8111,16 +8106,16 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B235" s="15" t="s">
+      <c r="A235" t="s">
+        <v>389</v>
+      </c>
+      <c r="B235" s="14" t="s">
         <v>196</v>
       </c>
       <c r="C235" t="s">
         <v>72</v>
       </c>
-      <c r="D235" s="25">
+      <c r="D235" s="24">
         <v>0</v>
       </c>
       <c r="E235" t="s">
@@ -8134,16 +8129,16 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B236" s="15" t="s">
+      <c r="A236" t="s">
+        <v>389</v>
+      </c>
+      <c r="B236" s="14" t="s">
         <v>197</v>
       </c>
       <c r="C236" t="s">
         <v>72</v>
       </c>
-      <c r="D236" s="25">
+      <c r="D236" s="24">
         <v>0</v>
       </c>
       <c r="E236" t="s">
@@ -8157,16 +8152,16 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B237" s="15" t="s">
+      <c r="A237" t="s">
+        <v>389</v>
+      </c>
+      <c r="B237" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C237" t="s">
         <v>72</v>
       </c>
-      <c r="D237" s="25">
+      <c r="D237" s="24">
         <v>0</v>
       </c>
       <c r="E237" t="s">
@@ -8180,16 +8175,16 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B238" s="15" t="s">
+      <c r="A238" t="s">
+        <v>389</v>
+      </c>
+      <c r="B238" s="14" t="s">
         <v>199</v>
       </c>
       <c r="C238" t="s">
         <v>72</v>
       </c>
-      <c r="D238" s="25">
+      <c r="D238" s="24">
         <v>0</v>
       </c>
       <c r="E238" t="s">
@@ -8203,16 +8198,16 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B239" s="15" t="s">
+      <c r="A239" t="s">
+        <v>389</v>
+      </c>
+      <c r="B239" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C239" t="s">
         <v>72</v>
       </c>
-      <c r="D239" s="25">
+      <c r="D239" s="24">
         <v>0</v>
       </c>
       <c r="E239" t="s">
@@ -8226,16 +8221,16 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B240" s="15" t="s">
+      <c r="A240" t="s">
+        <v>389</v>
+      </c>
+      <c r="B240" s="14" t="s">
         <v>201</v>
       </c>
       <c r="C240" t="s">
         <v>72</v>
       </c>
-      <c r="D240" s="25">
+      <c r="D240" s="24">
         <v>0</v>
       </c>
       <c r="E240" t="s">
@@ -8249,16 +8244,16 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B241" s="15" t="s">
+      <c r="A241" t="s">
+        <v>389</v>
+      </c>
+      <c r="B241" s="14" t="s">
         <v>202</v>
       </c>
       <c r="C241" t="s">
         <v>72</v>
       </c>
-      <c r="D241" s="25">
+      <c r="D241" s="24">
         <v>0</v>
       </c>
       <c r="E241" t="s">
@@ -8272,16 +8267,16 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B242" s="15" t="s">
+      <c r="A242" t="s">
+        <v>389</v>
+      </c>
+      <c r="B242" s="14" t="s">
         <v>203</v>
       </c>
       <c r="C242" t="s">
         <v>72</v>
       </c>
-      <c r="D242" s="25">
+      <c r="D242" s="24">
         <v>0</v>
       </c>
       <c r="E242" t="s">
@@ -8295,16 +8290,16 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B243" s="15" t="s">
+      <c r="A243" t="s">
+        <v>389</v>
+      </c>
+      <c r="B243" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C243" t="s">
         <v>72</v>
       </c>
-      <c r="D243" s="25">
+      <c r="D243" s="24">
         <v>3</v>
       </c>
       <c r="E243" t="s">
@@ -8318,16 +8313,16 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B244" s="15" t="s">
+      <c r="A244" t="s">
+        <v>389</v>
+      </c>
+      <c r="B244" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C244" t="s">
         <v>72</v>
       </c>
-      <c r="D244" s="25">
+      <c r="D244" s="24">
         <v>0</v>
       </c>
       <c r="E244" t="s">
@@ -8341,16 +8336,16 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B245" s="15" t="s">
+      <c r="A245" t="s">
+        <v>389</v>
+      </c>
+      <c r="B245" s="14" t="s">
         <v>213</v>
       </c>
       <c r="C245" t="s">
         <v>72</v>
       </c>
-      <c r="D245" s="25">
+      <c r="D245" s="24">
         <v>0</v>
       </c>
       <c r="E245" t="s">
@@ -8364,16 +8359,16 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B246" s="15" t="s">
+      <c r="A246" t="s">
+        <v>389</v>
+      </c>
+      <c r="B246" s="14" t="s">
         <v>214</v>
       </c>
       <c r="C246" t="s">
         <v>72</v>
       </c>
-      <c r="D246" s="25">
+      <c r="D246" s="24">
         <v>0</v>
       </c>
       <c r="E246" t="s">
@@ -8387,16 +8382,16 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B247" s="15" t="s">
+      <c r="A247" t="s">
+        <v>389</v>
+      </c>
+      <c r="B247" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C247" t="s">
         <v>72</v>
       </c>
-      <c r="D247" s="25">
+      <c r="D247" s="24">
         <v>6</v>
       </c>
       <c r="E247" t="s">
@@ -8410,16 +8405,16 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B248" s="15" t="s">
+      <c r="A248" t="s">
+        <v>389</v>
+      </c>
+      <c r="B248" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C248" t="s">
         <v>72</v>
       </c>
-      <c r="D248" s="25">
+      <c r="D248" s="24">
         <v>0</v>
       </c>
       <c r="E248" t="s">
@@ -8433,16 +8428,16 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B249" s="15" t="s">
+      <c r="A249" t="s">
+        <v>389</v>
+      </c>
+      <c r="B249" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C249" t="s">
         <v>72</v>
       </c>
-      <c r="D249" s="25">
+      <c r="D249" s="24">
         <v>0</v>
       </c>
       <c r="E249" t="s">
@@ -8456,16 +8451,16 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B250" s="15" t="s">
+      <c r="A250" t="s">
+        <v>389</v>
+      </c>
+      <c r="B250" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C250" t="s">
         <v>72</v>
       </c>
-      <c r="D250" s="25">
+      <c r="D250" s="24">
         <v>11</v>
       </c>
       <c r="E250" t="s">
@@ -8479,16 +8474,16 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B251" s="15" t="s">
+      <c r="A251" t="s">
+        <v>389</v>
+      </c>
+      <c r="B251" s="14" t="s">
         <v>232</v>
       </c>
       <c r="C251" t="s">
         <v>72</v>
       </c>
-      <c r="D251" s="25">
+      <c r="D251" s="24">
         <v>0</v>
       </c>
       <c r="E251" t="s">
@@ -8502,16 +8497,16 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B252" s="15" t="s">
+      <c r="A252" t="s">
+        <v>389</v>
+      </c>
+      <c r="B252" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C252" t="s">
         <v>72</v>
       </c>
-      <c r="D252" s="25">
+      <c r="D252" s="24">
         <v>0</v>
       </c>
       <c r="E252" t="s">
@@ -8525,16 +8520,16 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B253" s="15" t="s">
+      <c r="A253" t="s">
+        <v>389</v>
+      </c>
+      <c r="B253" s="14" t="s">
         <v>234</v>
       </c>
       <c r="C253" t="s">
         <v>72</v>
       </c>
-      <c r="D253" s="25">
+      <c r="D253" s="24">
         <v>0</v>
       </c>
       <c r="E253" t="s">
@@ -8548,16 +8543,16 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B254" s="15" t="s">
+      <c r="A254" t="s">
+        <v>389</v>
+      </c>
+      <c r="B254" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C254" t="s">
         <v>72</v>
       </c>
-      <c r="D254" s="25">
+      <c r="D254" s="24">
         <v>0</v>
       </c>
       <c r="E254" t="s">
@@ -8571,16 +8566,16 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B255" s="7" t="s">
+      <c r="A255" t="s">
+        <v>390</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>287</v>
       </c>
       <c r="C255" t="s">
         <v>70</v>
       </c>
-      <c r="D255" s="25">
+      <c r="D255" s="24">
         <v>18</v>
       </c>
       <c r="E255" t="s">
@@ -8594,16 +8589,16 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B256" s="7" t="s">
+      <c r="A256" t="s">
+        <v>390</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C256" t="s">
         <v>70</v>
       </c>
-      <c r="D256" s="25">
+      <c r="D256" s="24">
         <v>3</v>
       </c>
       <c r="E256" t="s">
@@ -8617,16 +8612,16 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B257" s="7" t="s">
+      <c r="A257" t="s">
+        <v>390</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>289</v>
       </c>
       <c r="C257" t="s">
         <v>70</v>
       </c>
-      <c r="D257" s="25">
+      <c r="D257" s="24">
         <v>7</v>
       </c>
       <c r="E257" t="s">
@@ -8640,16 +8635,16 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B258" s="7" t="s">
+      <c r="A258" t="s">
+        <v>390</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>290</v>
       </c>
       <c r="C258" t="s">
         <v>70</v>
       </c>
-      <c r="D258" s="25">
+      <c r="D258" s="24">
         <v>13</v>
       </c>
       <c r="E258" t="s">
@@ -8663,16 +8658,16 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B259" s="7" t="s">
+      <c r="A259" t="s">
+        <v>390</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>291</v>
       </c>
       <c r="C259" t="s">
         <v>70</v>
       </c>
-      <c r="D259" s="25">
+      <c r="D259" s="24">
         <v>3</v>
       </c>
       <c r="E259" t="s">
@@ -8686,16 +8681,16 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B260" s="7" t="s">
+      <c r="A260" t="s">
+        <v>390</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>292</v>
       </c>
       <c r="C260" t="s">
         <v>70</v>
       </c>
-      <c r="D260" s="25">
+      <c r="D260" s="24">
         <v>0</v>
       </c>
       <c r="E260" t="s">
@@ -8709,16 +8704,16 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B261" s="7" t="s">
+      <c r="A261" t="s">
+        <v>390</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>293</v>
       </c>
       <c r="C261" t="s">
         <v>70</v>
       </c>
-      <c r="D261" s="25">
+      <c r="D261" s="24">
         <v>5</v>
       </c>
       <c r="E261" t="s">
@@ -8732,16 +8727,16 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B262" s="7" t="s">
+      <c r="A262" t="s">
+        <v>390</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>294</v>
       </c>
       <c r="C262" t="s">
         <v>70</v>
       </c>
-      <c r="D262" s="25">
+      <c r="D262" s="24">
         <v>0</v>
       </c>
       <c r="E262" t="s">
@@ -8755,16 +8750,16 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B263" s="7" t="s">
+      <c r="A263" t="s">
+        <v>390</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C263" t="s">
         <v>70</v>
       </c>
-      <c r="D263" s="25">
+      <c r="D263" s="24">
         <v>0</v>
       </c>
       <c r="E263" t="s">
@@ -8778,16 +8773,16 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B264" s="7" t="s">
+      <c r="A264" t="s">
+        <v>390</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>304</v>
       </c>
       <c r="C264" t="s">
         <v>70</v>
       </c>
-      <c r="D264" s="25">
+      <c r="D264" s="24">
         <v>5</v>
       </c>
       <c r="E264" t="s">
@@ -8801,16 +8796,16 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B265" s="7" t="s">
+      <c r="A265" t="s">
+        <v>390</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>305</v>
       </c>
       <c r="C265" t="s">
         <v>70</v>
       </c>
-      <c r="D265" s="25">
+      <c r="D265" s="24">
         <v>3</v>
       </c>
       <c r="E265" t="s">
@@ -8824,16 +8819,16 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B266" s="7" t="s">
+      <c r="A266" t="s">
+        <v>390</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>306</v>
       </c>
       <c r="C266" t="s">
         <v>70</v>
       </c>
-      <c r="D266" s="25">
+      <c r="D266" s="24">
         <v>1</v>
       </c>
       <c r="E266" t="s">
@@ -8847,16 +8842,16 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B267" s="7" t="s">
+      <c r="A267" t="s">
+        <v>390</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>307</v>
       </c>
       <c r="C267" t="s">
         <v>70</v>
       </c>
-      <c r="D267" s="25">
+      <c r="D267" s="24">
         <v>0</v>
       </c>
       <c r="E267" t="s">
@@ -8870,16 +8865,16 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B268" s="7" t="s">
+      <c r="A268" t="s">
+        <v>390</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>308</v>
       </c>
       <c r="C268" t="s">
         <v>70</v>
       </c>
-      <c r="D268" s="25">
+      <c r="D268" s="24">
         <v>0</v>
       </c>
       <c r="E268" t="s">
@@ -8893,16 +8888,16 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B269" s="7" t="s">
+      <c r="A269" t="s">
+        <v>390</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>309</v>
       </c>
       <c r="C269" t="s">
         <v>70</v>
       </c>
-      <c r="D269" s="25">
+      <c r="D269" s="24">
         <v>0</v>
       </c>
       <c r="E269" t="s">
@@ -8916,16 +8911,16 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B270" s="7" t="s">
+      <c r="A270" t="s">
+        <v>390</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>310</v>
       </c>
       <c r="C270" t="s">
         <v>70</v>
       </c>
-      <c r="D270" s="25">
+      <c r="D270" s="24">
         <v>0</v>
       </c>
       <c r="E270" t="s">
@@ -8939,16 +8934,16 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B271" s="7" t="s">
+      <c r="A271" t="s">
+        <v>390</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C271" t="s">
         <v>70</v>
       </c>
-      <c r="D271" s="25">
+      <c r="D271" s="24">
         <v>0</v>
       </c>
       <c r="E271" t="s">
@@ -8962,16 +8957,16 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B272" s="7" t="s">
+      <c r="A272" t="s">
+        <v>390</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>312</v>
       </c>
       <c r="C272" t="s">
         <v>70</v>
       </c>
-      <c r="D272" s="25">
+      <c r="D272" s="24">
         <v>0</v>
       </c>
       <c r="E272" t="s">
@@ -8985,16 +8980,16 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B273" s="7" t="s">
+      <c r="A273" t="s">
+        <v>390</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>313</v>
       </c>
       <c r="C273" t="s">
         <v>70</v>
       </c>
-      <c r="D273" s="25">
+      <c r="D273" s="24">
         <v>0</v>
       </c>
       <c r="E273" t="s">
@@ -9008,16 +9003,16 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B274" s="9" t="s">
+      <c r="A274" t="s">
+        <v>390</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C274" t="s">
         <v>71</v>
       </c>
-      <c r="D274" s="25">
+      <c r="D274" s="24">
         <v>0</v>
       </c>
       <c r="E274" t="s">
@@ -9031,16 +9026,16 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B275" s="9" t="s">
+      <c r="A275" t="s">
+        <v>390</v>
+      </c>
+      <c r="B275" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C275" t="s">
         <v>71</v>
       </c>
-      <c r="D275" s="25">
+      <c r="D275" s="24">
         <v>8</v>
       </c>
       <c r="E275" t="s">
@@ -9054,16 +9049,16 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B276" s="9" t="s">
+      <c r="A276" t="s">
+        <v>390</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>258</v>
       </c>
       <c r="C276" t="s">
         <v>71</v>
       </c>
-      <c r="D276" s="25">
+      <c r="D276" s="24">
         <v>0</v>
       </c>
       <c r="E276" t="s">
@@ -9077,16 +9072,16 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B277" s="9" t="s">
+      <c r="A277" t="s">
+        <v>390</v>
+      </c>
+      <c r="B277" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C277" t="s">
         <v>71</v>
       </c>
-      <c r="D277" s="25">
+      <c r="D277" s="24">
         <v>0</v>
       </c>
       <c r="E277" t="s">
@@ -9100,16 +9095,16 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B278" s="9" t="s">
+      <c r="A278" t="s">
+        <v>390</v>
+      </c>
+      <c r="B278" s="8" t="s">
         <v>260</v>
       </c>
       <c r="C278" t="s">
         <v>71</v>
       </c>
-      <c r="D278" s="25">
+      <c r="D278" s="24">
         <v>0</v>
       </c>
       <c r="E278" t="s">
@@ -9123,16 +9118,16 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B279" s="9" t="s">
+      <c r="A279" t="s">
+        <v>390</v>
+      </c>
+      <c r="B279" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C279" t="s">
         <v>71</v>
       </c>
-      <c r="D279" s="25">
+      <c r="D279" s="24">
         <v>0</v>
       </c>
       <c r="E279" t="s">
@@ -9146,16 +9141,16 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B280" s="9" t="s">
+      <c r="A280" t="s">
+        <v>390</v>
+      </c>
+      <c r="B280" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C280" t="s">
         <v>71</v>
       </c>
-      <c r="D280" s="25">
+      <c r="D280" s="24">
         <v>0</v>
       </c>
       <c r="E280" t="s">
@@ -9169,16 +9164,16 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B281" s="9" t="s">
+      <c r="A281" t="s">
+        <v>390</v>
+      </c>
+      <c r="B281" s="8" t="s">
         <v>263</v>
       </c>
       <c r="C281" t="s">
         <v>71</v>
       </c>
-      <c r="D281" s="25">
+      <c r="D281" s="24">
         <v>0</v>
       </c>
       <c r="E281" t="s">
@@ -9192,16 +9187,16 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B282" s="9" t="s">
+      <c r="A282" t="s">
+        <v>390</v>
+      </c>
+      <c r="B282" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C282" t="s">
         <v>71</v>
       </c>
-      <c r="D282" s="25">
+      <c r="D282" s="24">
         <v>0</v>
       </c>
       <c r="E282" t="s">
@@ -9215,16 +9210,16 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B283" s="9" t="s">
+      <c r="A283" t="s">
+        <v>390</v>
+      </c>
+      <c r="B283" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C283" t="s">
         <v>71</v>
       </c>
-      <c r="D283" s="25">
+      <c r="D283" s="24">
         <v>0</v>
       </c>
       <c r="E283" t="s">
@@ -9238,16 +9233,16 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B284" s="9" t="s">
+      <c r="A284" t="s">
+        <v>390</v>
+      </c>
+      <c r="B284" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C284" t="s">
         <v>71</v>
       </c>
-      <c r="D284" s="25">
+      <c r="D284" s="24">
         <v>1</v>
       </c>
       <c r="E284" t="s">
@@ -9261,16 +9256,16 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B285" s="9" t="s">
+      <c r="A285" t="s">
+        <v>390</v>
+      </c>
+      <c r="B285" s="8" t="s">
         <v>267</v>
       </c>
       <c r="C285" t="s">
         <v>71</v>
       </c>
-      <c r="D285" s="25">
+      <c r="D285" s="24">
         <v>0</v>
       </c>
       <c r="E285" t="s">
@@ -9284,16 +9279,16 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B286" s="9" t="s">
+      <c r="A286" t="s">
+        <v>390</v>
+      </c>
+      <c r="B286" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C286" t="s">
         <v>71</v>
       </c>
-      <c r="D286" s="25">
+      <c r="D286" s="24">
         <v>0</v>
       </c>
       <c r="E286" t="s">
@@ -9307,16 +9302,16 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B287" s="9" t="s">
+      <c r="A287" t="s">
+        <v>390</v>
+      </c>
+      <c r="B287" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C287" t="s">
         <v>71</v>
       </c>
-      <c r="D287" s="25">
+      <c r="D287" s="24">
         <v>20</v>
       </c>
       <c r="E287" t="s">
@@ -9330,16 +9325,16 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B288" s="9" t="s">
+      <c r="A288" t="s">
+        <v>390</v>
+      </c>
+      <c r="B288" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C288" t="s">
         <v>71</v>
       </c>
-      <c r="D288" s="25">
+      <c r="D288" s="24">
         <v>0</v>
       </c>
       <c r="E288" t="s">
@@ -9353,16 +9348,16 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B289" s="9" t="s">
+      <c r="A289" t="s">
+        <v>390</v>
+      </c>
+      <c r="B289" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C289" t="s">
         <v>71</v>
       </c>
-      <c r="D289" s="25">
+      <c r="D289" s="24">
         <v>0</v>
       </c>
       <c r="E289" t="s">
@@ -9376,16 +9371,16 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B290" s="9" t="s">
+      <c r="A290" t="s">
+        <v>390</v>
+      </c>
+      <c r="B290" s="8" t="s">
         <v>272</v>
       </c>
       <c r="C290" t="s">
         <v>71</v>
       </c>
-      <c r="D290" s="25">
+      <c r="D290" s="24">
         <v>0</v>
       </c>
       <c r="E290" t="s">
@@ -9399,16 +9394,16 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B291" s="9" t="s">
+      <c r="A291" t="s">
+        <v>390</v>
+      </c>
+      <c r="B291" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C291" t="s">
         <v>71</v>
       </c>
-      <c r="D291" s="25">
+      <c r="D291" s="24">
         <v>0</v>
       </c>
       <c r="E291" t="s">
@@ -9422,16 +9417,16 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B292" s="9" t="s">
+      <c r="A292" t="s">
+        <v>390</v>
+      </c>
+      <c r="B292" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C292" t="s">
         <v>71</v>
       </c>
-      <c r="D292" s="25">
+      <c r="D292" s="24">
         <v>0</v>
       </c>
       <c r="E292" t="s">
@@ -9445,16 +9440,16 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B293" s="9" t="s">
+      <c r="A293" t="s">
+        <v>390</v>
+      </c>
+      <c r="B293" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C293" t="s">
         <v>71</v>
       </c>
-      <c r="D293" s="25">
+      <c r="D293" s="24">
         <v>0</v>
       </c>
       <c r="E293" t="s">
@@ -9468,16 +9463,16 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B294" s="9" t="s">
+      <c r="A294" t="s">
+        <v>390</v>
+      </c>
+      <c r="B294" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C294" t="s">
         <v>71</v>
       </c>
-      <c r="D294" s="25">
+      <c r="D294" s="24">
         <v>0</v>
       </c>
       <c r="E294" t="s">
@@ -9491,16 +9486,16 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B295" s="9" t="s">
+      <c r="A295" t="s">
+        <v>390</v>
+      </c>
+      <c r="B295" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C295" t="s">
         <v>71</v>
       </c>
-      <c r="D295" s="25">
+      <c r="D295" s="24">
         <v>8</v>
       </c>
       <c r="E295" t="s">
@@ -9514,16 +9509,16 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B296" s="10" t="s">
+      <c r="A296" t="s">
+        <v>390</v>
+      </c>
+      <c r="B296" s="9" t="s">
         <v>278</v>
       </c>
       <c r="C296" t="s">
         <v>71</v>
       </c>
-      <c r="D296" s="25">
+      <c r="D296" s="24">
         <v>0</v>
       </c>
       <c r="E296" t="s">
@@ -9537,16 +9532,16 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B297" s="10" t="s">
+      <c r="A297" t="s">
+        <v>390</v>
+      </c>
+      <c r="B297" s="9" t="s">
         <v>279</v>
       </c>
       <c r="C297" t="s">
         <v>71</v>
       </c>
-      <c r="D297" s="25">
+      <c r="D297" s="24">
         <v>2</v>
       </c>
       <c r="E297" t="s">
@@ -9560,16 +9555,16 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B298" s="16" t="s">
+      <c r="A298" t="s">
+        <v>390</v>
+      </c>
+      <c r="B298" s="15" t="s">
         <v>280</v>
       </c>
       <c r="C298" t="s">
         <v>72</v>
       </c>
-      <c r="D298" s="25">
+      <c r="D298" s="24">
         <v>2</v>
       </c>
       <c r="E298" t="s">
@@ -9583,16 +9578,16 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A299" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B299" s="16" t="s">
+      <c r="A299" t="s">
+        <v>390</v>
+      </c>
+      <c r="B299" s="15" t="s">
         <v>281</v>
       </c>
       <c r="C299" t="s">
         <v>72</v>
       </c>
-      <c r="D299" s="25">
+      <c r="D299" s="24">
         <v>2</v>
       </c>
       <c r="E299" t="s">
@@ -9606,16 +9601,16 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B300" s="16" t="s">
+      <c r="A300" t="s">
+        <v>390</v>
+      </c>
+      <c r="B300" s="15" t="s">
         <v>282</v>
       </c>
       <c r="C300" t="s">
         <v>72</v>
       </c>
-      <c r="D300" s="25">
+      <c r="D300" s="24">
         <v>2</v>
       </c>
       <c r="E300" t="s">
@@ -9629,16 +9624,16 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B301" s="16" t="s">
+      <c r="A301" t="s">
+        <v>390</v>
+      </c>
+      <c r="B301" s="15" t="s">
         <v>283</v>
       </c>
       <c r="C301" t="s">
         <v>72</v>
       </c>
-      <c r="D301" s="25">
+      <c r="D301" s="24">
         <v>0</v>
       </c>
       <c r="E301" t="s">
@@ -9652,16 +9647,16 @@
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A302" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B302" s="16" t="s">
+      <c r="A302" t="s">
+        <v>390</v>
+      </c>
+      <c r="B302" s="15" t="s">
         <v>284</v>
       </c>
       <c r="C302" t="s">
         <v>72</v>
       </c>
-      <c r="D302" s="25">
+      <c r="D302" s="24">
         <v>13</v>
       </c>
       <c r="E302" t="s">
@@ -9675,16 +9670,16 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A303" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B303" s="16" t="s">
+      <c r="A303" t="s">
+        <v>390</v>
+      </c>
+      <c r="B303" s="15" t="s">
         <v>285</v>
       </c>
       <c r="C303" t="s">
         <v>72</v>
       </c>
-      <c r="D303" s="25">
+      <c r="D303" s="24">
         <v>0</v>
       </c>
       <c r="E303" t="s">
@@ -9698,16 +9693,16 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A304" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B304" s="16" t="s">
+      <c r="A304" t="s">
+        <v>390</v>
+      </c>
+      <c r="B304" s="15" t="s">
         <v>286</v>
       </c>
       <c r="C304" t="s">
         <v>72</v>
       </c>
-      <c r="D304" s="25">
+      <c r="D304" s="24">
         <v>2</v>
       </c>
       <c r="E304" t="s">
@@ -9721,16 +9716,16 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B305" s="16" t="s">
+      <c r="A305" t="s">
+        <v>390</v>
+      </c>
+      <c r="B305" s="15" t="s">
         <v>296</v>
       </c>
       <c r="C305" t="s">
         <v>72</v>
       </c>
-      <c r="D305" s="25">
+      <c r="D305" s="24">
         <v>2</v>
       </c>
       <c r="E305" t="s">
@@ -9744,16 +9739,16 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A306" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B306" s="16" t="s">
+      <c r="A306" t="s">
+        <v>390</v>
+      </c>
+      <c r="B306" s="15" t="s">
         <v>297</v>
       </c>
       <c r="C306" t="s">
         <v>72</v>
       </c>
-      <c r="D306" s="25">
+      <c r="D306" s="24">
         <v>6</v>
       </c>
       <c r="E306" t="s">
@@ -9767,16 +9762,16 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A307" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B307" s="16" t="s">
+      <c r="A307" t="s">
+        <v>390</v>
+      </c>
+      <c r="B307" s="15" t="s">
         <v>298</v>
       </c>
       <c r="C307" t="s">
         <v>72</v>
       </c>
-      <c r="D307" s="25">
+      <c r="D307" s="24">
         <v>0</v>
       </c>
       <c r="E307" t="s">
@@ -9790,16 +9785,16 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A308" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B308" s="16" t="s">
+      <c r="A308" t="s">
+        <v>390</v>
+      </c>
+      <c r="B308" s="15" t="s">
         <v>299</v>
       </c>
       <c r="C308" t="s">
         <v>72</v>
       </c>
-      <c r="D308" s="25">
+      <c r="D308" s="24">
         <v>0</v>
       </c>
       <c r="E308" t="s">
@@ -9813,16 +9808,16 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A309" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B309" s="16" t="s">
+      <c r="A309" t="s">
+        <v>390</v>
+      </c>
+      <c r="B309" s="15" t="s">
         <v>300</v>
       </c>
       <c r="C309" t="s">
         <v>72</v>
       </c>
-      <c r="D309" s="25">
+      <c r="D309" s="24">
         <v>0</v>
       </c>
       <c r="E309" t="s">
@@ -9836,16 +9831,16 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A310" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B310" s="16" t="s">
+      <c r="A310" t="s">
+        <v>390</v>
+      </c>
+      <c r="B310" s="15" t="s">
         <v>301</v>
       </c>
       <c r="C310" t="s">
         <v>72</v>
       </c>
-      <c r="D310" s="25">
+      <c r="D310" s="24">
         <v>0</v>
       </c>
       <c r="E310" t="s">
@@ -9859,16 +9854,16 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A311" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B311" s="16" t="s">
+      <c r="A311" t="s">
+        <v>390</v>
+      </c>
+      <c r="B311" s="15" t="s">
         <v>302</v>
       </c>
       <c r="C311" t="s">
         <v>72</v>
       </c>
-      <c r="D311" s="25">
+      <c r="D311" s="24">
         <v>5</v>
       </c>
       <c r="E311" t="s">
@@ -9882,16 +9877,16 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A312" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B312" s="16" t="s">
+      <c r="A312" t="s">
+        <v>390</v>
+      </c>
+      <c r="B312" s="15" t="s">
         <v>303</v>
       </c>
       <c r="C312" t="s">
         <v>72</v>
       </c>
-      <c r="D312" s="25">
+      <c r="D312" s="24">
         <v>7</v>
       </c>
       <c r="E312" t="s">
@@ -9905,16 +9900,16 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A313" s="26" t="s">
+      <c r="A313" t="s">
         <v>393</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C313" s="19" t="s">
+      <c r="C313" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D313" s="25">
+      <c r="D313" s="24">
         <v>7</v>
       </c>
       <c r="E313" t="s">
@@ -9928,16 +9923,16 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A314" s="26" t="s">
+      <c r="A314" t="s">
         <v>393</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C314" s="19" t="s">
+      <c r="C314" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D314" s="25">
+      <c r="D314" s="24">
         <v>0</v>
       </c>
       <c r="E314" t="s">
@@ -9951,16 +9946,16 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A315" s="26" t="s">
+      <c r="A315" t="s">
         <v>393</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C315" s="19" t="s">
+      <c r="C315" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D315" s="25">
+      <c r="D315" s="24">
         <v>0</v>
       </c>
       <c r="E315" t="s">
@@ -9974,16 +9969,16 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A316" s="26" t="s">
+      <c r="A316" t="s">
         <v>393</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C316" s="19" t="s">
+      <c r="C316" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D316" s="25">
+      <c r="D316" s="24">
         <v>17</v>
       </c>
       <c r="E316" t="s">
@@ -9997,16 +9992,16 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A317" s="26" t="s">
+      <c r="A317" t="s">
         <v>393</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C317" s="19" t="s">
+      <c r="C317" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D317" s="25">
+      <c r="D317" s="24">
         <v>3</v>
       </c>
       <c r="E317" t="s">
@@ -10020,16 +10015,16 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A318" s="26" t="s">
+      <c r="A318" t="s">
         <v>393</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C318" s="19" t="s">
+      <c r="C318" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D318" s="25">
+      <c r="D318" s="24">
         <v>0</v>
       </c>
       <c r="E318" t="s">
@@ -10043,16 +10038,16 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A319" s="26" t="s">
+      <c r="A319" t="s">
         <v>393</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C319" s="19" t="s">
+      <c r="C319" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D319" s="25">
+      <c r="D319" s="24">
         <v>10</v>
       </c>
       <c r="E319" t="s">
@@ -10066,16 +10061,16 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A320" s="26" t="s">
+      <c r="A320" t="s">
         <v>393</v>
       </c>
-      <c r="B320" s="13" t="s">
+      <c r="B320" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C320" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D320" s="25">
+      <c r="C320" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D320" s="24">
         <v>11</v>
       </c>
       <c r="E320" t="s">
@@ -10089,16 +10084,16 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A321" s="26" t="s">
+      <c r="A321" t="s">
         <v>393</v>
       </c>
-      <c r="B321" s="13" t="s">
+      <c r="B321" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C321" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D321" s="25">
+      <c r="C321" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D321" s="24">
         <v>4</v>
       </c>
       <c r="E321" t="s">
@@ -10112,16 +10107,16 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A322" s="26" t="s">
+      <c r="A322" t="s">
         <v>393</v>
       </c>
-      <c r="B322" s="13" t="s">
+      <c r="B322" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C322" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D322" s="25">
+      <c r="C322" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D322" s="24">
         <v>25</v>
       </c>
       <c r="E322" t="s">
@@ -10135,16 +10130,16 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A323" s="26" t="s">
+      <c r="A323" t="s">
         <v>393</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="B323" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C323" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D323" s="25">
+      <c r="C323" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D323" s="24">
         <v>2</v>
       </c>
       <c r="E323" t="s">
@@ -10158,16 +10153,16 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A324" s="26" t="s">
+      <c r="A324" t="s">
         <v>393</v>
       </c>
-      <c r="B324" s="13" t="s">
+      <c r="B324" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C324" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D324" s="25">
+      <c r="C324" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D324" s="24">
         <v>5</v>
       </c>
       <c r="E324" t="s">
@@ -10181,16 +10176,16 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325" s="26" t="s">
+      <c r="A325" t="s">
         <v>393</v>
       </c>
-      <c r="B325" s="13" t="s">
+      <c r="B325" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C325" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D325" s="25">
+      <c r="C325" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D325" s="24">
         <v>0</v>
       </c>
       <c r="E325" t="s">
@@ -10204,16 +10199,16 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A326" s="26" t="s">
+      <c r="A326" t="s">
         <v>393</v>
       </c>
-      <c r="B326" s="13" t="s">
+      <c r="B326" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C326" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D326" s="25">
+      <c r="C326" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D326" s="24">
         <v>0</v>
       </c>
       <c r="E326" t="s">
@@ -10227,16 +10222,16 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A327" s="26" t="s">
+      <c r="A327" t="s">
         <v>393</v>
       </c>
-      <c r="B327" s="13" t="s">
+      <c r="B327" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C327" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D327" s="25">
+      <c r="C327" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D327" s="24">
         <v>0</v>
       </c>
       <c r="E327" t="s">
@@ -10250,16 +10245,16 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A328" s="26" t="s">
+      <c r="A328" t="s">
         <v>393</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="B328" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C328" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D328" s="25">
+      <c r="C328" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D328" s="24">
         <v>0</v>
       </c>
       <c r="E328" t="s">
@@ -10273,16 +10268,16 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A329" s="26" t="s">
+      <c r="A329" t="s">
         <v>393</v>
       </c>
-      <c r="B329" s="13" t="s">
+      <c r="B329" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C329" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D329" s="25">
+      <c r="C329" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D329" s="24">
         <v>0</v>
       </c>
       <c r="E329" t="s">
@@ -10296,16 +10291,16 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A330" s="26" t="s">
+      <c r="A330" t="s">
         <v>393</v>
       </c>
-      <c r="B330" s="13" t="s">
+      <c r="B330" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C330" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D330" s="25">
+      <c r="C330" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D330" s="24">
         <v>0</v>
       </c>
       <c r="E330" t="s">
@@ -10319,16 +10314,16 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A331" s="26" t="s">
+      <c r="A331" t="s">
         <v>393</v>
       </c>
-      <c r="B331" s="13" t="s">
+      <c r="B331" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C331" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D331" s="25">
+      <c r="C331" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D331" s="24">
         <v>0</v>
       </c>
       <c r="E331" t="s">
@@ -10342,16 +10337,16 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A332" s="26" t="s">
+      <c r="A332" t="s">
         <v>393</v>
       </c>
-      <c r="B332" s="17" t="s">
+      <c r="B332" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C332" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D332" s="25">
+      <c r="C332" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D332" s="24">
         <v>6</v>
       </c>
       <c r="E332" t="s">
@@ -10365,16 +10360,16 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A333" s="26" t="s">
+      <c r="A333" t="s">
         <v>393</v>
       </c>
-      <c r="B333" s="16" t="s">
+      <c r="B333" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C333" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D333" s="25">
+      <c r="C333" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D333" s="24">
         <v>0</v>
       </c>
       <c r="E333" t="s">
@@ -10388,16 +10383,16 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A334" s="26" t="s">
+      <c r="A334" t="s">
         <v>393</v>
       </c>
-      <c r="B334" s="16" t="s">
+      <c r="B334" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C334" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D334" s="25">
+      <c r="C334" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D334" s="24">
         <v>0</v>
       </c>
       <c r="E334" t="s">
@@ -10411,16 +10406,16 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A335" s="26" t="s">
+      <c r="A335" t="s">
         <v>393</v>
       </c>
-      <c r="B335" s="16" t="s">
+      <c r="B335" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C335" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D335" s="25">
+      <c r="C335" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D335" s="24">
         <v>0</v>
       </c>
       <c r="E335" t="s">
@@ -10434,16 +10429,16 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A336" s="26" t="s">
+      <c r="A336" t="s">
         <v>393</v>
       </c>
-      <c r="B336" s="16" t="s">
+      <c r="B336" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C336" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D336" s="25">
+      <c r="C336" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D336" s="24">
         <v>2</v>
       </c>
       <c r="E336" t="s">
@@ -10457,16 +10452,16 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A337" s="26" t="s">
+      <c r="A337" t="s">
         <v>393</v>
       </c>
-      <c r="B337" s="16" t="s">
+      <c r="B337" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C337" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D337" s="25">
+      <c r="C337" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D337" s="24">
         <v>2</v>
       </c>
       <c r="E337" t="s">
@@ -10480,16 +10475,16 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A338" s="26" t="s">
+      <c r="A338" t="s">
         <v>393</v>
       </c>
-      <c r="B338" s="16" t="s">
+      <c r="B338" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="C338" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D338" s="25">
+      <c r="C338" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D338" s="24">
         <v>0</v>
       </c>
       <c r="E338" t="s">
@@ -10503,16 +10498,16 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A339" s="26" t="s">
+      <c r="A339" t="s">
         <v>393</v>
       </c>
-      <c r="B339" s="16" t="s">
+      <c r="B339" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C339" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D339" s="25">
+      <c r="C339" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D339" s="24">
         <v>0</v>
       </c>
       <c r="E339" t="s">
@@ -10526,16 +10521,16 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A340" s="26" t="s">
+      <c r="A340" t="s">
         <v>393</v>
       </c>
-      <c r="B340" s="16" t="s">
+      <c r="B340" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="C340" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D340" s="25">
+      <c r="C340" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D340" s="24">
         <v>0</v>
       </c>
       <c r="E340" t="s">
@@ -10549,16 +10544,16 @@
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A341" s="26" t="s">
+      <c r="A341" t="s">
         <v>393</v>
       </c>
-      <c r="B341" s="16" t="s">
+      <c r="B341" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C341" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D341" s="25">
+      <c r="C341" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D341" s="24">
         <v>0</v>
       </c>
       <c r="E341" t="s">
@@ -10572,16 +10567,16 @@
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A342" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B342" s="18" t="s">
+      <c r="A342" t="s">
+        <v>391</v>
+      </c>
+      <c r="B342" s="17" t="s">
         <v>352</v>
       </c>
       <c r="C342" t="s">
         <v>70</v>
       </c>
-      <c r="D342" s="25">
+      <c r="D342" s="24">
         <v>0</v>
       </c>
       <c r="E342" t="s">
@@ -10595,16 +10590,16 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A343" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B343" s="7" t="s">
+      <c r="A343" t="s">
+        <v>391</v>
+      </c>
+      <c r="B343" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C343" t="s">
         <v>70</v>
       </c>
-      <c r="D343" s="25">
+      <c r="D343" s="24">
         <v>0</v>
       </c>
       <c r="E343" t="s">
@@ -10618,16 +10613,16 @@
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A344" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B344" s="7" t="s">
+      <c r="A344" t="s">
+        <v>391</v>
+      </c>
+      <c r="B344" s="6" t="s">
         <v>354</v>
       </c>
       <c r="C344" t="s">
         <v>70</v>
       </c>
-      <c r="D344" s="25">
+      <c r="D344" s="24">
         <v>0</v>
       </c>
       <c r="E344" t="s">
@@ -10641,16 +10636,16 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A345" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B345" s="7" t="s">
+      <c r="A345" t="s">
+        <v>391</v>
+      </c>
+      <c r="B345" s="6" t="s">
         <v>355</v>
       </c>
       <c r="C345" t="s">
         <v>70</v>
       </c>
-      <c r="D345" s="25">
+      <c r="D345" s="24">
         <v>0</v>
       </c>
       <c r="E345" t="s">
@@ -10664,16 +10659,16 @@
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A346" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B346" s="7" t="s">
+      <c r="A346" t="s">
+        <v>391</v>
+      </c>
+      <c r="B346" s="6" t="s">
         <v>356</v>
       </c>
       <c r="C346" t="s">
         <v>70</v>
       </c>
-      <c r="D346" s="25">
+      <c r="D346" s="24">
         <v>0</v>
       </c>
       <c r="E346" t="s">
@@ -10687,16 +10682,16 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A347" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B347" s="7" t="s">
+      <c r="A347" t="s">
+        <v>391</v>
+      </c>
+      <c r="B347" s="6" t="s">
         <v>363</v>
       </c>
       <c r="C347" t="s">
         <v>70</v>
       </c>
-      <c r="D347" s="25">
+      <c r="D347" s="24">
         <v>0</v>
       </c>
       <c r="E347" t="s">
@@ -10710,16 +10705,16 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A348" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B348" s="7" t="s">
+      <c r="A348" t="s">
+        <v>391</v>
+      </c>
+      <c r="B348" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C348" t="s">
         <v>70</v>
       </c>
-      <c r="D348" s="25">
+      <c r="D348" s="24">
         <v>127</v>
       </c>
       <c r="E348" t="s">
@@ -10733,16 +10728,16 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A349" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B349" s="7" t="s">
+      <c r="A349" t="s">
+        <v>391</v>
+      </c>
+      <c r="B349" s="6" t="s">
         <v>365</v>
       </c>
       <c r="C349" t="s">
         <v>70</v>
       </c>
-      <c r="D349" s="25">
+      <c r="D349" s="24">
         <v>704</v>
       </c>
       <c r="E349" t="s">
@@ -10756,16 +10751,16 @@
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A350" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B350" s="7" t="s">
+      <c r="A350" t="s">
+        <v>391</v>
+      </c>
+      <c r="B350" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C350" t="s">
         <v>70</v>
       </c>
-      <c r="D350" s="25">
+      <c r="D350" s="24">
         <v>0</v>
       </c>
       <c r="E350" t="s">
@@ -10779,16 +10774,16 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A351" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B351" s="7" t="s">
+      <c r="A351" t="s">
+        <v>391</v>
+      </c>
+      <c r="B351" s="6" t="s">
         <v>367</v>
       </c>
       <c r="C351" t="s">
         <v>70</v>
       </c>
-      <c r="D351" s="25">
+      <c r="D351" s="24">
         <v>5</v>
       </c>
       <c r="E351" t="s">
@@ -10802,16 +10797,16 @@
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A352" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B352" s="7" t="s">
+      <c r="A352" t="s">
+        <v>391</v>
+      </c>
+      <c r="B352" s="6" t="s">
         <v>368</v>
       </c>
       <c r="C352" t="s">
         <v>70</v>
       </c>
-      <c r="D352" s="25">
+      <c r="D352" s="24">
         <v>0</v>
       </c>
       <c r="E352" t="s">
@@ -10825,16 +10820,16 @@
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A353" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B353" s="13" t="s">
+      <c r="A353" t="s">
+        <v>391</v>
+      </c>
+      <c r="B353" s="12" t="s">
         <v>337</v>
       </c>
       <c r="C353" t="s">
         <v>71</v>
       </c>
-      <c r="D353" s="25">
+      <c r="D353" s="24">
         <v>0</v>
       </c>
       <c r="E353" t="s">
@@ -10848,16 +10843,16 @@
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A354" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B354" s="13" t="s">
+      <c r="A354" t="s">
+        <v>391</v>
+      </c>
+      <c r="B354" s="12" t="s">
         <v>338</v>
       </c>
       <c r="C354" t="s">
         <v>71</v>
       </c>
-      <c r="D354" s="25">
+      <c r="D354" s="24">
         <v>0</v>
       </c>
       <c r="E354" t="s">
@@ -10871,16 +10866,16 @@
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A355" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B355" s="13" t="s">
+      <c r="A355" t="s">
+        <v>391</v>
+      </c>
+      <c r="B355" s="12" t="s">
         <v>339</v>
       </c>
       <c r="C355" t="s">
         <v>71</v>
       </c>
-      <c r="D355" s="25">
+      <c r="D355" s="24">
         <v>0</v>
       </c>
       <c r="E355" t="s">
@@ -10894,16 +10889,16 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A356" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B356" s="13" t="s">
+      <c r="A356" t="s">
+        <v>391</v>
+      </c>
+      <c r="B356" s="12" t="s">
         <v>340</v>
       </c>
       <c r="C356" t="s">
         <v>71</v>
       </c>
-      <c r="D356" s="25">
+      <c r="D356" s="24">
         <v>0</v>
       </c>
       <c r="E356" t="s">
@@ -10917,16 +10912,16 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A357" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B357" s="13" t="s">
+      <c r="A357" t="s">
+        <v>391</v>
+      </c>
+      <c r="B357" s="12" t="s">
         <v>341</v>
       </c>
       <c r="C357" t="s">
         <v>71</v>
       </c>
-      <c r="D357" s="25">
+      <c r="D357" s="24">
         <v>0</v>
       </c>
       <c r="E357" t="s">
@@ -10940,16 +10935,16 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A358" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B358" s="13" t="s">
+      <c r="A358" t="s">
+        <v>391</v>
+      </c>
+      <c r="B358" s="12" t="s">
         <v>342</v>
       </c>
       <c r="C358" t="s">
         <v>71</v>
       </c>
-      <c r="D358" s="25">
+      <c r="D358" s="24">
         <v>0</v>
       </c>
       <c r="E358" t="s">
@@ -10963,16 +10958,16 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A359" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B359" s="13" t="s">
+      <c r="A359" t="s">
+        <v>391</v>
+      </c>
+      <c r="B359" s="12" t="s">
         <v>343</v>
       </c>
       <c r="C359" t="s">
         <v>71</v>
       </c>
-      <c r="D359" s="25">
+      <c r="D359" s="24">
         <v>0</v>
       </c>
       <c r="E359" t="s">
@@ -10986,16 +10981,16 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A360" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B360" s="13" t="s">
+      <c r="A360" t="s">
+        <v>391</v>
+      </c>
+      <c r="B360" s="12" t="s">
         <v>344</v>
       </c>
       <c r="C360" t="s">
         <v>71</v>
       </c>
-      <c r="D360" s="25">
+      <c r="D360" s="24">
         <v>1</v>
       </c>
       <c r="E360" t="s">
@@ -11009,16 +11004,16 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A361" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B361" s="13" t="s">
+      <c r="A361" t="s">
+        <v>391</v>
+      </c>
+      <c r="B361" s="12" t="s">
         <v>345</v>
       </c>
       <c r="C361" t="s">
         <v>71</v>
       </c>
-      <c r="D361" s="25">
+      <c r="D361" s="24">
         <v>2</v>
       </c>
       <c r="E361" t="s">
@@ -11032,16 +11027,16 @@
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A362" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B362" s="13" t="s">
+      <c r="A362" t="s">
+        <v>391</v>
+      </c>
+      <c r="B362" s="12" t="s">
         <v>346</v>
       </c>
       <c r="C362" t="s">
         <v>71</v>
       </c>
-      <c r="D362" s="25">
+      <c r="D362" s="24">
         <v>2</v>
       </c>
       <c r="E362" t="s">
@@ -11055,16 +11050,16 @@
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A363" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B363" s="13" t="s">
+      <c r="A363" t="s">
+        <v>391</v>
+      </c>
+      <c r="B363" s="12" t="s">
         <v>347</v>
       </c>
       <c r="C363" t="s">
         <v>71</v>
       </c>
-      <c r="D363" s="25">
+      <c r="D363" s="24">
         <v>0</v>
       </c>
       <c r="E363" t="s">
@@ -11078,16 +11073,16 @@
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A364" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B364" s="13" t="s">
+      <c r="A364" t="s">
+        <v>391</v>
+      </c>
+      <c r="B364" s="12" t="s">
         <v>348</v>
       </c>
       <c r="C364" t="s">
         <v>71</v>
       </c>
-      <c r="D364" s="25">
+      <c r="D364" s="24">
         <v>0</v>
       </c>
       <c r="E364" t="s">
@@ -11101,16 +11096,16 @@
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A365" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B365" s="13" t="s">
+      <c r="A365" t="s">
+        <v>391</v>
+      </c>
+      <c r="B365" s="12" t="s">
         <v>349</v>
       </c>
       <c r="C365" t="s">
         <v>71</v>
       </c>
-      <c r="D365" s="25">
+      <c r="D365" s="24">
         <v>0</v>
       </c>
       <c r="E365" t="s">
@@ -11124,16 +11119,16 @@
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A366" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B366" s="13" t="s">
+      <c r="A366" t="s">
+        <v>391</v>
+      </c>
+      <c r="B366" s="12" t="s">
         <v>350</v>
       </c>
       <c r="C366" t="s">
         <v>71</v>
       </c>
-      <c r="D366" s="25">
+      <c r="D366" s="24">
         <v>0</v>
       </c>
       <c r="E366" t="s">
@@ -11147,16 +11142,16 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A367" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B367" s="13" t="s">
+      <c r="A367" t="s">
+        <v>391</v>
+      </c>
+      <c r="B367" s="12" t="s">
         <v>351</v>
       </c>
       <c r="C367" t="s">
         <v>71</v>
       </c>
-      <c r="D367" s="25">
+      <c r="D367" s="24">
         <v>3</v>
       </c>
       <c r="E367" t="s">
@@ -11170,16 +11165,16 @@
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A368" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B368" s="16" t="s">
+      <c r="A368" t="s">
+        <v>391</v>
+      </c>
+      <c r="B368" s="15" t="s">
         <v>357</v>
       </c>
       <c r="C368" t="s">
         <v>72</v>
       </c>
-      <c r="D368" s="25">
+      <c r="D368" s="24">
         <v>18</v>
       </c>
       <c r="E368" t="s">
@@ -11193,16 +11188,16 @@
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A369" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B369" s="16" t="s">
+      <c r="A369" t="s">
+        <v>391</v>
+      </c>
+      <c r="B369" s="15" t="s">
         <v>358</v>
       </c>
       <c r="C369" t="s">
         <v>72</v>
       </c>
-      <c r="D369" s="25">
+      <c r="D369" s="24">
         <v>3</v>
       </c>
       <c r="E369" t="s">
@@ -11216,16 +11211,16 @@
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B370" s="16" t="s">
+      <c r="A370" t="s">
+        <v>391</v>
+      </c>
+      <c r="B370" s="15" t="s">
         <v>359</v>
       </c>
       <c r="C370" t="s">
         <v>72</v>
       </c>
-      <c r="D370" s="25">
+      <c r="D370" s="24">
         <v>0</v>
       </c>
       <c r="E370" t="s">
@@ -11239,16 +11234,16 @@
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B371" s="16" t="s">
+      <c r="A371" t="s">
+        <v>391</v>
+      </c>
+      <c r="B371" s="15" t="s">
         <v>360</v>
       </c>
       <c r="C371" t="s">
         <v>72</v>
       </c>
-      <c r="D371" s="25">
+      <c r="D371" s="24">
         <v>2</v>
       </c>
       <c r="E371" t="s">
@@ -11262,16 +11257,16 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A372" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B372" s="16" t="s">
+      <c r="A372" t="s">
+        <v>391</v>
+      </c>
+      <c r="B372" s="15" t="s">
         <v>361</v>
       </c>
       <c r="C372" t="s">
         <v>72</v>
       </c>
-      <c r="D372" s="25">
+      <c r="D372" s="24">
         <v>0</v>
       </c>
       <c r="E372" t="s">
@@ -11285,16 +11280,16 @@
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="B373" s="16" t="s">
+      <c r="A373" t="s">
+        <v>391</v>
+      </c>
+      <c r="B373" s="15" t="s">
         <v>362</v>
       </c>
       <c r="C373" t="s">
         <v>72</v>
       </c>
-      <c r="D373" s="25">
+      <c r="D373" s="24">
         <v>0</v>
       </c>
       <c r="E373" t="s">
